--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-小行星采样与资源开发.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-小行星采样与资源开发.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>task_name</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Subtask_MultiDomain_Expert_Analysis</t>
+  </si>
+  <si>
+    <t>CrossDomain_Support_Expansion</t>
+  </si>
+  <si>
+    <t>Final_Solution_Proposal</t>
   </si>
   <si>
     <t xml:space="preserve">地理学教授
@@ -41,139 +47,276 @@
     <t>Crew Manager</t>
   </si>
   <si>
+    <t xml:space="preserve">化学教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">物理学教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">化学教授
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">人工智能教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">数学教授
-</t>
-  </si>
-  <si>
-    <t>根据用户提出的问题：小行星采样与资源开发，提炼出其中核心的3-5个子问题，用中文回答。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
+    <t>小行星采样与资源开发的核心挑战是什么？请从地质结构、资源类型以及开采可行性三个方面考虑，提出3-5个关键问题。</t>
+  </si>
+  <si>
+    <t>根据以下核心子问题，进行深入分析并提出具体的研究方向：
+1. 小行星的地质结构与矿物组成如何？
+2. 小行星上的资源分布及其可开采性如何？
+3. 如何克服小行星低重力环境对采样和资源提取的影响？
+4. 采样与资源开发对小行星环境的长期影响是什么？
+5. 如何建立有效的国际法律框架来规范小行星资源的开发？</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：小行星采样与资源开发，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
-    <t>研究小行星的物理化学特性及其资源评估，包括小行星的组成、结构、矿物学特征以及潜在的资源类型和储量。分析小行星表面和内部物质的化学成分，评估可开采资源的经济价值和开采难度。</t>
-  </si>
-  <si>
-    <t>探索适用于不同小行星环境的采样技术，包括采样器的设计、操作方法以及如何确保采样过程的安全性和效率。此外，还需考虑在极端条件下（如微重力、极端温度等）进行作业的技术挑战。</t>
-  </si>
-  <si>
-    <t>从保护外太空环境的角度出发，评估资源开发活动可能对小行星乃至更大范围内的太空环境造成的影响，包括物理扰动、化学污染等，以及如何建立一套可持续发展的资源开发模式。</t>
-  </si>
-  <si>
-    <t>探讨小行星资源开发的国际法律框架，包括产权问题、资源分配的公平性以及如何促进国际间的合作与共享。此外，还需要考虑在开发过程中遵循的伦理原则，确保人类活动的正当性和责任感。</t>
-  </si>
-  <si>
-    <t>研究在小行星上进行资源开发的经济可行性和商业模式。这包括成本效益分析、市场需求预测以及如何吸引私人投资参与这一新兴领域。</t>
-  </si>
-  <si>
-    <t>为了深入探讨小行星采样与资源开发这一多学科领域的问题，可以从以下几个核心子问题入手，每个子问题都具有明确的指向性和研究价值，同时适合不同学科专家进行深入分析：
-1. **小行星的物理化学特性及其资源评估**：地质学家和地球化学家可以研究小行星的组成、结构、矿物学特征以及潜在的资源类型和储量。这包括分析小行星表面和内部物质的化学成分，评估可开采资源的经济价值和开采难度。了解这些信息对于规划采样任务和后续资源开发至关重要。
-2. **小行星采样技术及其可行性分析**：航天工程师和材料科学家可以探索适用于不同小行星环境的采样技术，包括采样器的设计、操作方法以及如何确保采样过程的安全性和效率。此外，还需考虑在极端条件下（如微重力、极端温度等）进行作业的技术挑战。
-3. **小行星资源开发对环境的影响评估**：环境科学家和生态学家可以从保护外太空环境的角度出发，评估资源开发活动可能对小行星乃至更大范围内的太空环境造成的影响，包括物理扰动、化学污染等，以及如何建立一套可持续发展的资源开发模式。
-4. **法规、伦理和国际合作框架**：国际法专家、伦理学家和社会科学家可以探讨小行星资源开发的国际法律框架，包括产权问题、资源分配的公平性以及如何促进国际间的合作与共享。此外，还需要考虑在开发过程中遵循的伦理原则，确保人类活动的正当性和责任感。
-5. **小行星资源开发的经济模型与商业模式**：经济学家和商业管理专家可以研究在小行星上进行资源开发的经济可行性和商业模式。这包括成本效益分析、市场需求预测以及如何吸引私人投资参与这一新兴领域。
-这些问题构成了解决小行星采样与资源开发这一宏大课题的基础，每个子问题的深入研究都将为实现这一目标提供重要的理论依据和技术支持。</t>
-  </si>
-  <si>
-    <t>研究小行星的物理化学特性及其资源评估是一项涉及天文学、地质学、化学、材料科学及工程学等多学科的综合任务。首先，了解小行星的组成、结构、矿物学特征对于评估其作为潜在资源库的意义至关重要。小行星根据其形成历史和演化的不同，大致可以分为三类：C型（碳质）、S型（硅质）和M型（金属）小行星。
-1. **组成与结构**：C型小行星富含有机物和水冰，被认为是太阳系早期物质的保存库；S型小行星主要由硅酸盐岩石构成，可能含有少量金属；M型小行星则以金属（如铁、镍）为主，可能含有铂族元素等稀有金属。小行星的内部结构可能从简单的单质体到复杂的多层结构不等，这取决于其形成过程中的物理化学条件。
-2. **矿物学特征**：矿物学研究有助于理解小行星的形成条件和历史。例如，通过分析返回的样品中的矿物种类和含量，可以推测出小行星表面环境的温度、压力及水的存在形式。此外，矿物的同位素比值还能提供关于小行星起源的重要信息。
-3. **潜在资源类型与储量**：小行星资源的评估主要集中在水资源、金属资源以及其他稀有元素上。水资源对于支持月球或火星上的宇航员生活以及作为推进剂的制备至关重要；金属资源，特别是铂族元素，因其在地球上稀少而在工业上有很高的价值；其他稀有元素如氦-3等，可能成为未来能源的来源。
-4. **化学成分分析**：小行星表面和内部物质的化学成分分析需要借助于地面望远镜的光谱观测、空间探测器的就地分析以及返回样品的实验室研究。这些方法能够提供关于元素丰度、矿物种类和潜在资源的信息。
-5. **经济价值与开采难度**：评估小行星资源的经济价值不仅要考虑资源的种类和储量，还要考虑开采、运输的成本以及技术的可行性。例如，提取小行星上的水资源可能比金属资源更加经济可行，因为水资源的利用可以直接支持太空任务，减少地球上的发射成本。而金属资源的开采则需要考虑如何将资源从太空高效、安全地运回地球，这涉及到更复杂的技术和更高的成本。
-综上所述，小行星的物理化学特性和资源评估是一个复杂而跨学科的任务，需要天文学家、地质学家、化学家和工程师等多领域的专家共同合作。通过对小行星的深入研究，不仅可以增进我们对太阳系形成和演化的理解，还能为未来的太空资源开发和利用提供科学依据。</t>
-  </si>
-  <si>
-    <t>在探讨适用于不同小行星环境的采样技术时，我们首先需要考虑到小行星的独特环境条件，包括但不限于微重力、极端温度变化、以及可能存在的尘埃和岩石结构。这些条件对采样器的设计、操作方法以及采样过程的安全性和效率提出了巨大的挑战。下面，我将从采样器设计、操作方法、安全性与效率保障，以及技术挑战几个方面进行详细阐述。
-### 采样器设计
-1. **适应微重力环境**：由于小行星表面的重力远小于地球，传统的采样设备可能会因为摩擦力不足而无法正常工作。为此，采样器的设计需要特别考虑如何在低重力环境中固定和移动。例如，可以采用带有螺旋钻或抓取臂的采样器，利用旋转或机械臂的力量来提供必要的抓力。
-2. **耐受极端温度**：小行星表面的温度可以随太阳照射而大幅变化，设计时需要确保采样器能够在极端温度下正常工作。这通常涉及到使用耐高温和低温的材料，以及设计有效的热管理系统。
-3. **防尘与岩石结构适应**：小行星表面可能覆盖着大量的尘埃和碎片，这些物质会干扰采样过程。因此，采样器需要设计有高效的防尘机制，同时能够适应不同硬度的岩石结构。
-### 操作方法
-1. **遥控与自主操作**：由于信号延迟，远程控制采样器执行精细的操作是一项挑战。因此，采样器需要具备一定程度的自主操作能力，能够自动调整以适应不同的表面条件。
-2. **多点采样策略**：为了获取具有代表性的样本，采样策略应包括在小行星的不同位置进行采样。这不仅有助于科学分析，还能提高任务的成功率。
-### 安全性与效率保障
-1. **冗余设计**：为确保任务的可靠性，采样系统应具备冗余设计，即使某个部件失效，系统仍能继续工作。
-2. **轻量化与模块化**：为了减少发射成本和提高灵活性，采样器的设计应追求轻量化和模块化，使得可以根据任务需求快速调整配置。
-### 技术挑战
-1. **低重力下的采样技术**：如何在低重力环境下有效地获取和储存样本是一个技术难题。需要开发新的采样技术，如利用动态采样或使用特殊设计的容器来捕获样本。
-2. **自主导航与定位**：在未知的小行星环境中，采样器需要具备自主导航和精确定位的能力，这需要先进的传感器技术、图像处理和机器学习算法的支持。
-3. **数据传输与处理**：采样过程中产生的大量数据需要高效传输回地球，并进行实时处理，这对数据压缩技术、传输协议和地面接收系统提出了更高的要求。
-综上所述，开发适用于不同小行星环境的采样技术是一项复杂而具有挑战性的任务，需要跨学科的紧密合作，包括物理学、材料科学、机械工程、计算机科学等多个领域的知识。通过不断的技术创新和实验验证，我们有信心克服这些挑战，为小行星采样任务的成功提供可靠的技术支持。</t>
-  </si>
-  <si>
-    <t>在探讨小行星采样与资源开发对太空环境可能造成的影响时，我们从物理扰动和化学污染两个主要方面进行分析，并提出一套可持续发展的资源开发模式。
-1. 物理扰动：
-小行星采样与资源开发活动不可避免地会对小行星表面造成物理扰动。这包括但不限于挖掘过程中的物质抛射、采样设备的着陆与起飞过程中的冲击等。这些活动可能会导致小行星表面的物质结构发生变化，影响其自然状态。此外，如果采样或开发过程中产生的物质以足够高的速度抛射，它们可能会成为太空垃圾，对其他太空探索活动构成威胁。因此，需要采用低冲击的采样技术，如使用机器人手臂进行温和的表面采样，同时确保采样设备的着陆与起飞过程尽量减少对小行星表面的扰动。
-2. 化学污染：
-在小行星资源开发过程中，可能会涉及到化学品的使用，例如用于提取稀有金属的化学试剂。这些化学物质如果泄漏或随意排放，可能会污染小行星及其周围环境。此外，长期的人类活动可能会引入地球上的微生物，这不仅可能改变小行星的自然生态系统，还可能对其科学价值产生负面影响。因此，需要采用封闭系统进行化学处理，确保没有化学物质或微生物泄漏到环境中。
-3. 建立可持续发展的小行星资源开发模式：
-为了确保小行星资源开发的可持续性，我们需要：
-- 严格遵守太空法和国际协议，确保资源开发活动不会对太空环境造成不可逆转的破坏。
-- 进行全面的环境影响评估，包括对小行星物理结构、化学成分以及可能存在的微生物环境的评估。
-- 开发和使用环境友好型技术，如采用太阳能等可再生能源驱动的设备，减少化学物质的使用，以及实施零排放的物质回收与处理技术。
-- 建立长期监测机制，对资源开发活动的环境影响进行持续监测，确保能够及时响应任何潜在的环境问题。
-- 促进国际合作，共享资源开发技术，同时确保所有活动都以保护太空环境为前提。
-综上所述，小行星资源开发活动确实可能对太空环境造成一定的影响，但通过采取适当的预防措施和技术手段，我们可以最大限度地减少这些影响，并朝着可持续发展的目标迈进。这不仅有助于保护宝贵的太空环境，也为人类未来更广泛地利用太空资源奠定了基础。</t>
-  </si>
-  <si>
-    <t>小行星资源开发的国际法律框架是一个复杂且多维的问题，涉及国际法、产权法、资源分配、国际合作、伦理原则等多个方面。以下是对这一问题的深入探讨：
-### 1. 国际法律框架
-#### 1.1 《外层空间条约》（1967年）
-《外层空间条约》是国际空间法的基石，明确规定外层空间，包括月球和其他天体，不得由任何国家通过主权声索、使用或占有以及其他任何方式加以据为己有。这意味着任何国家或私人实体都不能独占小行星资源。条约还要求所有外层空间活动必须符合国际法，以维护和平和安全。
-#### 1.2 《月球协定》（1979年）
-《月球协定》进一步规定了外层空间资源的开发和利用原则，强调这些资源是全人类的共同遗产，任何开发活动都应公平且有利益共享机制。然而，该协定并未得到主要航天国家（如美国、俄罗斯和中国）的广泛接受，因此其实际影响力有限。
-### 2. 产权问题
-#### 2.1 国家层面的立法
-尽管国际条约对小行星资源的所有权进行了限制，一些国家已经通过国内立法来促进私人企业的参与。例如，美国《商业太空发射竞争力法案》（2015年）和卢森堡《空间资源法》（2017年）都明确允许私人企业开采和利用小行星资源，但强调这些资源的利用必须符合国际法。
-#### 2.2 国际合作与协调
-为了确保产权问题的公平性和透明度，国际社会需要建立一个协调机制，如设立专门的国际机构来管理和监督小行星资源的开发活动。这可以包括制定统一的产权登记系统，确保资源的合法开采和利用。
-### 3. 资源分配的公平性
-#### 3.1 全球利益共享
-小行星资源的开发应确保全球利益共享，避免资源被少数国家或企业垄断。可以通过建立一个国际基金或利益分享机制，将部分资源收益用于全球公共项目，如环境保护、减贫和发展援助。
-#### 3.2 透明度和监管
-为了确保资源分配的公平性，需要建立透明的监管机制，包括公开资源开采和利用的数据，确保所有利益相关方都能参与决策过程。
-### 4. 国际间的合作与共享
-#### 4.1 建立国际协议
-国际社会应通过多边协议来促进小行星资源开发的合作与共享。这些协议可以包括技术交流、联合开发项目和资源分配机制，确保各国都能从中受益。
-#### 4.2 加强国际组织的作用
-国际组织如联合国和平利用外层空间委员会（COPUOS）可以在协调国际努力、制定标准和指导原则方面发挥关键作用。此外，可以设立专门的国际机构来管理和监督小行星资源的开发活动。
-### 5. 伦理原则
-#### 5.1 保护外层空间环境
-小行星资源开发应遵循环境保护原则，避免对小行星及其周边环境造成不可逆的损害。这包括制定严格的环境保护标准和监测机制，确保可持续开发。
-#### 5.2 保障人类安全
-开发活动应确保人类的安全和健康，避免对地球和太空中的人员和设施造成威胁。这包括制定安全标准和应急计划，确保在发生意外时能够迅速响应。
-#### 5.3 促进科学和教育
-小行星资源开发应促进科学进步和教育，通过共享科学数据和技术成果，推动全球科学界的发展。这可以包括建立国际科学合作项目，促进知识的传播和应用。
-### 6. 总结
-小行星资源开发的国际法律框架需要综合考虑国际法、产权法、资源分配、国际合作和伦理原则等多个方面。通过建立透明的监管机制、公平的利益分享机制和严格的环境保护标准，可以确保小行星资源开发活动的合法性和公正性，促进全球合作与共享，实现可持续发展。</t>
-  </si>
-  <si>
-    <t>在探讨小行星资源开发的经济可行性和商业模式时，我们需要从成本效益分析、市场需求预测以及吸引私人投资等几个方面来综合考虑。
-1. **成本效益分析**：
-   - **成本分析**：小行星资源开发的初期成本非常高，这包括但不限于航天器的设计与制造、发射成本、轨道转移成本、着陆与采样装备、资源提取与加工设备、以及地球返回系统的成本。此外，还需考虑长期的运营成本，如维护、人员培训等。
-   - **效益分析**：小行星上可能含有丰富的金属资源（如铂族金属）、水冰（可以分解为氢和氧，用作火箭燃料或支持生命维持系统），以及稀有的地球元素。这些资源的开采和利用，可以极大地减少从地球上运输物资的成本，对于未来的太空探索和殖民具有重要价值。经济效益的评估需要考虑资源的市场价格、开采成本以及运输成本等因素。
-2. **市场需求预测**：
-   - **当前市场需求**：目前，小行星资源的主要潜在需求市场包括空间站建设、深空探测任务、以及未来可能的月球或火星基地建设。这些项目需要大量的建筑材料和能源，而小行星上的资源可以提供有效的补充。
-   - **未来市场需求**：随着太空技术的发展和商业航天的兴起，预计未来的市场需求将显著增长。特别是如果小行星资源能够成为可靠且经济的供应链，将极大促进太空工业的发展。
-3. **吸引私人投资**：
-   - **政策与法律框架**：为了吸引私人投资，需要建立明确的法律框架，确保投资者的权益。国际法目前对小行星资源的开采存在一定的模糊性，因此需要国际社会共同努力，制定相关法律和规定。
-   - **风险管理**：小行星资源开发涉及高风险，包括技术风险、市场风险和政策风险等。投资者需要看到合理的风险管理策略，例如通过分阶段投资、技术验证和市场测试等方式来降低风险。
-   - **合作模式**：可以通过建立公私合作模式（PPP），政府与企业共同承担风险和收益，以吸引更多的私人资本投入。此外，可以探索建立太空资源开发基金，吸引风险投资和私募股权等多渠道资金。
-综上所述，小行星资源开发的经济可行性和商业模式需要综合考虑成本效益、市场需求和投资吸引力。通过多学科的深入研究和国际合作，可以逐步克服技术、经济和法律上的挑战，实现这一新兴领域的可持续发展。</t>
+    <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：小行星采样与资源开发
+</t>
+  </si>
+  <si>
+    <t>基于化学专业知识，分析小行星的地质结构和矿物组成，并提出新的研究方法或模型。</t>
+  </si>
+  <si>
+    <t>基于物理学专业知识，分析小行星上的资源分布及其可开采性，并提出新的研究方法或模型。</t>
+  </si>
+  <si>
+    <t>基于人工智能专业知识，分析如何克服小行星低重力环境对采样和资源提取的影响，提出新的技术方案或模型。</t>
+  </si>
+  <si>
+    <t>基于地理学专业知识，分析采样与资源开发对小行星环境的长期影响，并提出新的研究方法或模型。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：小行星采样与资源开发
+</t>
+  </si>
+  <si>
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：小行星采样与资源开发
+</t>
+  </si>
+  <si>
+    <t>小行星采样与资源开发是未来空间探索与利用的重要方向，但这一领域面临许多挑战。从地质结构、资源类型以及开采可行性三个方面考虑，以下是几个关键问题，它们能够帮助我们更加深入地理解小行星采样与资源开发的复杂性：
+1. **小行星的地质结构与矿物组成如何？**
+   - 小行星的内部结构和表面性质对于采样和资源开发至关重要。需要了解小行星是否有足够的稳定性来支持采样装置的着陆，以及其表面物质是否易于采集。此外，小行星的矿物组成直接关系到其资源的价值，例如水冰、金属矿物等。
+2. **小行星上的资源分布及其可开采性如何？**
+   - 需要确定小行星上哪些资源是有价值的，它们的分布情况如何，以及这些资源是否易于开采。不同的小行星可能含有不同的资源，例如碳质小行星可能富含水冰，而S型小行星可能含有较多的金属矿藏。资源的可开采性还涉及到技术可行性与经济成本的评估。
+3. **如何克服小行星低重力环境对采样和资源提取的影响？**
+   - 由于小行星的引力远低于地球，这为采样和资源提取带来了独特的挑战。低重力环境可能导致设备的设计、操作方式与在地球上的情况大不相同。例如，如何确保采样设备能够稳定地在小行星表面工作，以及如何有效地收集和运输样本。
+4. **采样与资源开发对小行星环境的长期影响是什么？**
+   - 小行星采样和资源开发活动可能会对小行星的自然状态产生影响。需要评估这些活动可能带来的环境变化，包括对小行星表面结构的改变、可能的化学污染以及对小行星轨道的微小扰动。这些变化可能会影响未来的研究和开发活动。
+5. **如何建立有效的国际法律框架来规范小行星资源的开发？**
+   - 随着多个国家和私营企业开始关注小行星资源开发，建立一个国际认可的法律框架变得尤为重要。这涉及到如何确定资源产权、如何避免冲突以及如何确保开发活动的可持续性和公平性。国际条约和协议需要明确规定这些方面，以促进小行星资源开发的国际合作。
+这些问题不仅需要多学科的合作研究，还需要国际社会的共同努力，以确保小行星采样与资源开发活动能够安全、可持续地进行。</t>
+  </si>
+  <si>
+    <t>小行星采样与资源开发是未来空间探索与利用的重要方向，它不仅涉及到天文学和物理学，还与地理学、化学以及环境科学密切相关。以下是对五个核心子问题的深入分析及具体研究方向的建议：
+1. **小行星的地质结构与矿物组成如何？**
+   - **分析**：小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石到石质球粒陨石，再到铁质陨石，每种类型都可能包含不同的金属和有机物质。
+   - **研究方向**：可以通过分析已知陨石样本，结合遥感技术对小行星表面的光谱特征进行分析，来推断小行星的矿物组成。此外，通过地面望远镜和空间探测器的高分辨率图像，研究小行星表面特征，以理解其地质结构。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
+2. **小行星上的资源分布及其可开采性如何？**
+   - **分析**：了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。
+   - **研究方向**：应采用多尺度的探测方法，包括地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，来综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
+3. **如何克服小行星低重力环境对采样和资源提取的影响？**
+   - **分析**：小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。
+   - **研究方向**：开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
+4. **采样与资源开发对小行星环境的长期影响是什么？**
+   - **分析**：资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。
+   - **研究方向**：需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
+5. **如何建立有效的国际法律框架来规范小行星资源的开发？**
+   - **分析**：小行星资源开发涉及复杂的国际法律问题，包括权属、开发权利、环境保护和国际合作等方面。
+   - **研究方向**：应当在国际空间法的框架下，探讨建立多边协议或条约的可能性，以确保公平、合理地利用小行星资源。同时，研究如何通过国际合作机制，如建立国际组织或联合开发项目，来促进小行星资源开发的透明度和可持续性。
+通过上述分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
+  </si>
+  <si>
+    <t>1. **小行星的地质结构与矿物组成如何？**
+   - **分析**：小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石到石质球粒陨石，再到铁质陨石，每种类型都可能包含不同的金属和有机物质。
+   - **研究方向**：可以通过分析已知陨石样本，结合遥感技术对小行星表面的光谱特征进行分析，来推断小行星的矿物组成。此外，通过地面望远镜和空间探测器的高分辨率图像，研究小行星表面特征，以理解其地质结构。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
+2. **小行星上的资源分布及其可开采性如何？**
+   - **分析**：了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。
+   - **研究方向**：应采用多尺度的探测方法，包括地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，来综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
+3. **如何克服小行星低重力环境对采样和资源提取的影响？**
+   - **分析**：小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。
+   - **研究方向**：开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
+4. **采样与资源开发对小行星环境的长期影响是什么？**
+   - **分析**：资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。
+   - **研究方向**：需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
+5. **如何建立有效的国际法律框架来规范小行星资源的开发？**
+   - **分析**：小行星资源开发涉及复杂的国际法律问题，包括权属、开发权利、环境保护和国际合作等方面。
+   - **研究方向**：应当在国际空间法的框架下，探讨建立多边协议或条约的可能性，以确保公平、合理地利用小行星资源。同时，研究如何通过国际合作机制，如建立国际组织或联合开发项目，来促进小行星资源开发的透明度和可持续性。
+通过上述分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
+  </si>
+  <si>
+    <t>### 小行星采样与资源开发的多学科分析
+#### 1. 小行星的地质结构与矿物组成
+**化学教授分析**：
+小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石到石质球粒陨石，再到铁质陨石，每种类型都可能包含不同的金属和有机物质。通过已知陨石样本分析、遥感技术对小行星表面光谱特征的分析，以及通过地面望远镜和空间探测器的高分辨率图像研究小行星表面特征，可以推断小行星的矿物组成。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
+#### 2. 小行星上的资源分布及其可开采性
+**物理学教授分析**：
+了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。采用多尺度的探测方法，如地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，可以综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
+#### 3. 如何克服小行星低重力环境对采样和资源提取的影响
+**人工智能教授分析**：
+小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。需要开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
+#### 4. 采样与资源开发对小行星环境的长期影响
+**地理学教授分析**：
+资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
+#### 5. 如何建立有效的国际法律框架来规范小行星资源的开发
+**地理学教授分析**：
+小行星资源开发涉及复杂的国际法律问题，包括权属、开发权利、环境保护和国际合作等方面。需要在国际空间法的框架下，探讨建立多边协议或条约的可能性，以确保公平、合理地利用小行星资源。同时，研究如何通过国际合作机制，如建立国际组织或联合开发项目，来促进小行星资源开发的透明度和可持续性。
+通过上述分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
+  </si>
+  <si>
+    <t>小行星的地质结构和矿物组成是研究其资源价值和潜在利用价值的关键。这些天体的物质构成极为多样化，从碳质球粒陨石（C型小行星）中发现的丰富的有机物和水，到石质球粒陨石（S型小行星）中的硅酸盐矿物，再到铁质陨石（M型小行星）中的金属铁和镍，每种类型的小行星都具有独特的地质特征和成分。这种多样性不仅反映了太阳系早期的物质分布，也为未来的小行星资源利用提供了不同的可能性。
+### 小行星的地质结构
+小行星的内部结构可能与地球等大型天体相似，但因质量较小，缺乏足够的重力来促进显著的地质活动，因此内部分层可能不如地球明显。小行星可能具有以下结构层次：
+1. **表面层**：由撞击坑、风化层和碎石构成，富含不同类型的尘埃和岩石碎片。
+2. **表层下层**：可能包含未受撞击破坏的原始物质，如含水矿物和有机物。
+3. **核心层**：对于较大的小行星，可能存在一个由金属（如铁和镍）组成的内核，这是由于早期熔融导致的重物质沉降。
+### 矿物组成
+小行星的矿物组成取决于其类型和形成历史。碳质球粒陨石富含水和有机物，可能含有碳酸盐、粘土矿物和冰等；石质球粒陨石主要由硅酸盐矿物组成，如橄榄石和辉石；铁质陨石则主要由金属铁和镍构成。此外，小行星表面的光谱分析显示，一些小行星可能含有硫化物、氧化物和硫酸盐等其他矿物。
+### 新的研究方法和模型
+1. **高分辨率遥感技术**：利用地面望远镜和空间探测器的高分辨率成像技术，可以详细记录小行星表面的地形和矿物分布。通过这些图像和光谱数据，科学家可以识别出特定的矿物成分，例如通过近红外光谱技术检测到水和有机物的存在。
+2. **实验室模拟**：在实验室中模拟小行星的形成条件，通过高压高温实验生成相似的矿物，可以更好地理解小行星内部的物质分布和结构。这种方法还可以帮助科学家测试小行星物质在不同条件下的行为，为未来的资源提取提供理论支持。
+3. **采样返回任务**：通过太空探测器进行小行星表面采样并返回地球，可以获取直接的物质样本进行详细分析。这种方法不仅可以验证遥感和模拟实验的结果，还可以发现新的矿物和有机化合物，为更深入的研究提供物质基础。
+4. **多学科合作**：小行星研究是一个多学科交叉的领域，需要化学、地质学、天文学和材料科学等多学科的紧密合作。通过多学科的综合研究，可以更全面地理解小行星的地质结构和矿物组成，为未来的太空探索和资源利用提供科学依据。
+通过这些方法和模型的综合应用，我们可以更深入地了解小行星的内部结构和矿物组成，为未来的太空探索和资源开发提供坚实的基础。</t>
+  </si>
+  <si>
+    <t>小行星上的资源分布及其可开采性是天体物理学和行星科学中的重要研究领域，这些研究不仅对于理解太阳系的形成和演化具有重要价值，而且对于未来的太空资源利用和人类的太空探索活动具有深远的意义。小行星上的资源主要包括水冰、金属（如铁、镍、铂族金属等）和硅酸盐矿物，这些资源的分布和可开采性受多种因素影响。
+### 资源分布分析
+1. **地质历史**：小行星的形成和演化历史对其资源分布有决定性影响。例如，C型小行星富含水冰和有机物，而S型小行星则富含金属和硅酸盐矿物。通过分析小行星的光谱特性，可以初步判断其类型和可能的资源分布。
+2. **物理性质**：小行星的大小、形状、密度和表面结构等物理性质会影响资源的分布。例如，较大的小行星内部可能存在部分分层，导致不同的矿物在不同深度上富集。小行星的表面风化层（regolith）也可能含有丰富的资源。
+3. **环境条件**：小行星所处的位置以及其周围的空间环境，如辐射环境、微流星体撞击等，也会影响资源的分布。例如，频繁的微流星体撞击可能会导致小行星表面物质的混合。
+### 可开采性分析
+1. **自转状态**：小行星的自转速度和自转轴的倾斜角度会影响开采设备的设计。快速自转的小行星会增加着陆和稳定操作的难度，而缓慢自转或不自转的小行星则相对容易进行表面活动。
+2. **重力环境**：小行星的低重力环境对开采活动提出了特殊的技术要求。例如，传统的重力依赖型挖掘技术在小行星上可能无法正常工作，需要开发新的采掘技术，如磁力吸附、静电吸附等。
+3. **表面稳定性**：小行星表面的稳定性对于确保开采设备的安全运行至关重要。表面的不稳定性可能导致设备陷入或滑落。因此，对小行星表面的详细探测和评估是必要的。
+### 新的研究方法或模型
+1. **多尺度探测技术结合**：利用地面天文观测、轨道探测器的多光谱成像和雷达探测、以及着陆探测器的现场采样和分析，构建小行星的三维地质模型，实现资源分布的精确评估。
+2. **资源提取效率模型**：开发模拟资源提取过程的物理模型，考虑小行星的物理环境（如重力、温度、压力等）和材料特性（如硬度、粘性等），优化提取技术方案，提高资源提取的效率和安全性。
+3. **环境影响评估模型**：建立评估小行星开采活动对其自然环境和生态系统的潜在影响的模型，确保开采活动的可持续性和环境保护。
+4. **长期监测网络**：在小行星表面建立长期监测站，收集环境变化、资源消耗等数据，为后续的开采活动提供持续的数据支持。
+通过上述方法和技术的发展，不仅能够更准确地评估小行星上的资源分布和可开采性，还能为未来的太空资源开发提供科学依据和技术支持，为人类的太空探索事业开辟新的方向。</t>
+  </si>
+  <si>
+    <t>在小行星低重力环境中进行采样与资源提取，确实面临着一系列独特的挑战，包括但不限于设备的固定、样本的收集以及资源的加工与运输。为了有效克服这些挑战，我们可以通过开发和应用一系列适应低重力环境的新技术方案或模型来实现目标。以下是几个具体的建议：
+1. **设备固定与稳定技术**：
+   - **静电吸附与磁性吸附**：开发能够利用小行星表面静电或磁性的吸附装置，以确保设备在低重力环境下的稳定性。这些吸附装置可以根据小行星的具体物质组成进行定制，以提高吸附效率。
+   - **机械锚定**：设计一种可以深入小行星表面的机械锚定系统，通过螺旋钻或类似机构固定设备，从而提供足够的稳定性以支持采样和挖掘操作。
+2. **采样与挖掘技术**：
+   - **轻量化与多功能机械臂**：开发轻量化且多功能的机械臂，这些机械臂能够根据不同的采样需求调整其工作模式，例如使用不同的末端执行器进行样本抓取、切割或钻取。此外，机械臂的设计应考虑到低重力环境下的能效比，以减少能源消耗。
+   - **微波加热采样**：利用微波加热技术对小行星表面的冰层进行加热，以促进样本的采集。这种方法在低重力环境下尤其有效，因为加热可以减少冰的粘度，使其更容易被采集。
+3. **样本处理与运输**：
+   - **密封容器技术**：设计能够适应低重力环境的密封容器，用于收集和储存样本。这些容器应具有良好的密封性能，以防止样本在运输过程中的泄漏或污染。
+   - **低重力运输系统**：开发专门用于低重力环境的运输系统，确保样本从采样点到处理点的安全运输。这可能包括使用轻质材料制成的运输车或传送带，以及利用微小推进器进行精细控制的运输平台。
+4. **资源加工技术**：
+   - **现场资源利用（ISRU）**：开发现场资源利用技术，直接在小行星上处理和提取所需的资源。例如，可以利用太阳能或核能驱动的冶炼设施，将采集到的矿物材料转化为可用的金属或其他材料。
+   - **微重力环境下的化学反应器**：研究和开发适用于微重力环境下的化学反应器，用于处理小行星表面的矿物，提取有价值成分。这些反应器的设计应考虑重力对反应过程的影响，以提高反应效率和资源回收率。
+5. **智能控制与自主导航**：
+   - **人工智能控制系统**：利用先进的人工智能算法，开发能够自主控制和导航的采样与挖掘设备。这些设备应具备环境感知能力，能够根据小行星表面的实际情况调整其操作策略，以适应复杂的地形和变化的环境条件。
+   - **遥操作与半自主模式**：结合地面控制站的远程操作和设备的半自主模式，实现高效、灵活的采样与挖掘任务。通过地面控制站提供宏观指令，设备自主执行具体操作，以提高任务的执行效率和安全性。
+综上所述，通过开发和应用上述技术方案，可以有效克服小行星低重力环境对采样和资源提取的影响，为未来的小行星探测和资源开发任务提供坚实的技术支持。</t>
+  </si>
+  <si>
+    <t>采样与资源开发对小行星环境的长期影响是一个复杂且多维的问题，它涉及到小行星的物理、化学性质的变化，以及这些变化对其轨道稳定性的影响。为了全面评估采样和资源开发活动对小行星环境的影响，需要建立一套综合的评估模型，该模型应包含以下几个关键组成部分：
+1. **小行星物理性质的变化监测**：采用遥感技术和地面雷达观测技术，监测小行星表面物质的物理特性变化，如密度、硬度、孔隙度等。通过分析这些数据，可以评估采样和资源开发活动对小行星表面结构的影响，以及这些活动是否导致表面材料的显著变化。
+2. **化学成分分析**：使用光谱分析技术，如红外光谱、拉曼光谱等，监测小行星表面和内部材料的化学成分变化。这有助于了解采样和开发活动是否导致了化学成分的改变，以及这些改变可能对小行星环境产生的长远影响。
+3. **轨道动力学分析模型**：构建小行星轨道动力学模型，模拟采样和资源开发活动对小行星质量分布的影响，进而评估这些活动对小行星轨道稳定性的影响。特别关注小行星与其卫星系统、行星或其他天体之间的引力相互作用如何因质量变化而改变。
+4. **环境影响评估框架**：建立一个全面的环境影响评估框架，该框架不仅考虑直接的物理和化学变化，还应包括对小行星生态系统（如果存在的话）的影响评估。此外，还需要考虑人类活动对小行星环境的间接影响，如可能产生的微小尘埃粒子对小行星环境和周围空间环境的影响。
+5. **可持续性与安全性评估**：基于上述分析，制定一套可持续资源开发和采样操作的指导原则，确保活动既能满足当前的技术和经济需求，又不会对小行星环境造成长远的不可逆损害。同时，评估这些活动的安全性，确保不会对地球或其他重要天体构成威胁。
+6. **国际协作与数据共享**：鉴于小行星资源开发的国际性和复杂性，建立国际合作机制，促进数据共享和技术交流，确保所有国家和利益相关方都能从科学发现和资源开发中受益，同时共同承担保护太空环境的责任。
+通过上述方法和模型的建立，可以为小行星采样和资源开发活动提供科学依据，确保这些活动在环境保护和资源可持续利用方面达到最佳平衡。这不仅有助于推动太空探索和利用的健康发展，也为人类的长期太空存在和未来可能的太空居住提供基础支持。</t>
+  </si>
+  <si>
+    <t>### 小行星采样与资源开发的多学科分析
+#### 1. 小行星的地质结构与矿物组成
+**化学教授分析**：
+小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石（C型小行星）中发现的丰富的有机物和水，到石质球粒陨石（S型小行星）中的硅酸盐矿物，再到铁质陨石（M型小行星）中的金属铁和镍，每种类型的小行星都具有独特的地质特征和成分。通过已知陨石样本分析、遥感技术对小行星表面光谱特征的分析，以及通过地面望远镜和空间探测器的高分辨率图像研究小行星表面特征，可以推断小行星的矿物组成。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
+**补充观点**：
+- **高分辨率遥感技术**：利用地面望远镜和空间探测器的高分辨率成像技术，可以详细记录小行星表面的地形和矿物分布。通过这些图像和光谱数据，科学家可以识别出特定的矿物成分，例如通过近红外光谱技术检测到水和有机物的存在。
+- **实验室模拟**：在实验室中模拟小行星的形成条件，通过高压高温实验生成相似的矿物，可以更好地理解小行星内部的物质分布和结构。这种方法还可以帮助科学家测试小行星物质在不同条件下的行为，为未来的资源提取提供理论支持。
+- **采样返回任务**：通过太空探测器进行小行星表面采样并返回地球，可以获取直接的物质样本进行详细分析。这种方法不仅可以验证遥感和模拟实验的结果，还可以发现新的矿物和有机化合物，为更深入的研究提供物质基础。
+- **多学科合作**：小行星研究是一个多学科交叉的领域，需要化学、地质学、天文学和材料科学等多学科的紧密合作。通过多学科的综合研究，可以更全面地理解小行星的地质结构和矿物组成，为未来的太空探索和资源利用提供科学依据。
+#### 2. 小行星上的资源分布及其可开采性
+**物理学教授分析**：
+了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。采用多尺度的探测方法，如地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，可以综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
+**补充观点**：
+- **地质历史**：小行星的形成和演化历史对其资源分布有决定性影响。例如，C型小行星富含水冰和有机物，而S型小行星则富含金属和硅酸盐矿物。通过分析小行星的光谱特性，可以初步判断其类型和可能的资源分布。
+- **物理性质**：小行星的大小、形状、密度和表面结构等物理性质会影响资源的分布。例如，较大的小行星内部可能存在部分分层，导致不同的矿物在不同深度上富集。小行星的表面风化层（regolith）也可能含有丰富的资源。
+- **环境条件**：小行星所处的位置以及其周围的空间环境，如辐射环境、微流星体撞击等，也会影响资源的分布。例如，频繁的微流星体撞击可能会导致小行星表面物质的混合。
+#### 3. 如何克服小行星低重力环境对采样和资源提取的影响
+**人工智能教授分析**：
+小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。需要开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
+**补充观点**：
+- **设备固定与稳定技术**：开发能够利用小行星表面静电或磁性的吸附装置，以确保设备在低重力环境下的稳定性。这些吸附装置可以根据小行星的具体物质组成进行定制，以提高吸附效率。设计一种可以深入小行星表面的机械锚定系统，通过螺旋钻或类似机构固定设备，从而提供足够的稳定性以支持采样和挖掘操作。
+- **采样与挖掘技术**：开发轻量化且多功能的机械臂，这些机械臂能够根据不同的采样需求调整其工作模式，例如使用不同的末端执行器进行样本抓取、切割或钻取。利用微波加热技术对小行星表面的冰层进行加热，以促进样本的采集。
+- **样本处理与运输**：设计能够适应低重力环境的密封容器，用于收集和储存样本。开发专门用于低重力环境的运输系统，确保样本从采样点到处理点的安全运输。
+- **资源加工技术**：开发现场资源利用技术，直接在小行星上处理和提取所需的资源。研究和开发适用于微重力环境下的化学反应器，用于处理小行星表面的矿物，提取有价值成分。
+- **智能控制与自主导航**：利用先进的人工智能算法，开发能够自主控制和导航的采样与挖掘设备。结合地面控制站的远程操作和设备的半自主模式，实现高效、灵活的采样与挖掘任务。
+#### 4. 采样与资源开发对小行星环境的长期影响
+**地理学教授分析**：
+资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
+**补充观点**：
+- **小行星物理性质的变化监测**：采用遥感技术和地面雷达观测技术，监测小行星表面物质的物理特性变化，如密度、硬度、孔隙度等。通过分析这些数据，可以评估采样和资源开发活动对小行星表面结构的影响。
+- **化学成分分析**：使用光谱分析技术，如红外光谱、拉曼光谱等，监测小行星表面和内部材料的化学成分变化。这有助于了解采样和开发活动是否导致了化学成分的改变。
+- **轨道动力学分析模型**：构建小行星轨道动力学模型，模拟采样和资源开发活动对小行星质量分布的影响，进而评估这些活动对小行星轨道稳定性的影响。
+- **环境影响评估框架**：建立一个全面的环境影响评估框架，该框架不仅考虑直接的物理和化学变化，还应包括对小行星生态系统（如果存在的话）的影响评估。此外，还需要考虑人类活动对小行星环境的间接影响。
+- **可持续性与安全性评估**：基于上述分析，制定一套可持续资源开发和采样操作的指导原则，确保活动既能满足当前的技术和经济需求，又不会对小行星环境造成长远的不可逆损害。评估这些活动的安全性，确保不会对地球或其他重要天体构成威胁。
+- **国际协作与数据共享**：建立国际合作机制，促进数据共享和技术交流，确保所有国家和利益相关方都能从科学发现和资源开发中受益，同时共同承担保护太空环境的责任。
+通过上述多学科的综合分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
+  </si>
+  <si>
+    <t>**项目申请书**
+**摘要**
+本项目旨在通过综合运用遥感技术、地质分析、物理模拟和法律研究等多学科手段，系统性地分析小行星的地质结构、矿物组成、资源分布及其可开采性，克服低重力环境下的采样和资源提取技术难题，评估采样与资源开发对小行星环境的长期影响，并探讨建立有效的国际法律框架来规范小行星资源的开发。项目将为小行星资源开发提供科学依据和技术支持，促进人类对太空资源的合理利用和可持续发展。
+**研究背景和意义**
+随着人类对地球资源的需求日益增长和对太空探索的兴趣不断加深，小行星因其丰富的矿物资源而成为未来资源开发的重要目标。小行星资源的开发不仅能够缓解地球资源的压力，还可能为人类提供新的能源和技术材料，对推动科技进步和经济发展具有重要意义。然而，小行星资源的开发面临地质结构复杂、矿物组成多样、低重力环境挑战、环境影响和国际法律框架缺失等多方面的问题。因此，本项目致力于解决这些问题，为小行星资源的科学开发提供全面的解决方案。
+**研究内容**
+1. **小行星地质结构与矿物组成的分析**：通过分析已知陨石样本和遥感技术，结合地面望远镜和空间探测器的高分辨率图像，研究小行星表面特征，推断其矿物组成，并通过模拟实验探索小行星内部结构和物质分布。
+2. **小行星资源分布及其可开采性的评估**：采用多尺度探测方法，综合评估资源分布，考虑小行星的自转状态、重力环境、表面稳定性等因素，评估资源的可开采性。
+3. **低重力环境下采样和资源提取技术的开发**：研究适应低重力环境的采样和挖掘技术，如静电吸附、磁性吸附、机械臂等方法，以及资源处理和运输技术。
+4. **采样与资源开发对小行星环境的长期影响评估**：建立评估模型，监测采样和资源开发活动对小行星表面和内部结构的改变，研究开发活动对小行星轨道的潜在影响。
+5. **国际法律框架的建立**：在国际空间法框架下，探讨建立多边协议或条约的可能性，研究国际合作机制，促进小行星资源开发的透明度和可持续性。
+**拟解决的科学问题**
+1. 小行星的地质结构和矿物组成如何影响其资源价值？
+2. 小行星上的资源分布及其可开采性如何评估？
+3. 低重力环境对采样和资源提取的影响及应对策略是什么？
+4. 采样与资源开发对小行星环境的长期影响有哪些？
+5. 如何建立有效的国际法律框架来规范小行星资源的开发？
+**拟提出的技术路线**
+1. **小行星地质结构与矿物组成的分析技术路线**：
+   - 收集已知陨石样本，进行矿物学和化学分析，了解小行星可能的成分。
+   - 运用高光谱遥感技术对小行星表面进行光谱分析，结合地面望远镜和空间探测器的光谱数据，推断矿物组成。
+   - 利用空间探测器的高分辨率图像分析小行星表面特征，结合地质学原理，推测其地质结构。
+   - 通过实验室模拟实验，探索小行星内部结构和物质分布，模拟不同条件下物质的形成和迁移过程。
+2. **小行星资源分布及其可开采性的评估技术路线**：
+   - 综合运用地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测数据，建立小行星资源分布模型。
+   - 进行资源量估算，结合小行星的物理性质（如自转状态、重力环境、表面稳定性）评估资源的可开采性。
+   - 开发资源评估软件，实现对小行星资源分布和可开采性的快速评估。
+3. **低重力环境下采样和资源提取技术的开发技术路线**：
+   - 研究小行星低重力环境下的物理学特性，设计适应低重力环境的采样工具，如静电吸附装置、磁性吸附装置、机械臂等。
+   - 开发适用于低重力环境的资源提取技术，包括挖掘、破碎、筛选和运输等过程的技术方案。
+   - 在地面模拟低重力环境进行技术验证，确保技术方案的有效性和可靠性。
+4. **采样与资源开发对小行星环境的长期影响评估技术路线**：
+   - 建立环境影响评估模型，模型应考虑采样和资源开发对小行星表面、内部结构以及轨道的影响。
+   - 利用轨道探测器和着陆探测器的数据，监测采样和资源开发活动对小行星环境的影响。
+   - 通过模型预测和监测数据的对比，评估开发活动的环境影响，提出减少影响的措施。
+5. **国际法律框架的建立技术路线**：
+   - 研究现行国际空间法及相关国际协议，分析其在小行星资源开发中的适用性。
+   - 与国际组织、政府机构、科研机构和企业合作，探讨建立多边协议或条约的可能性，确保小行星资源开发的公平性和合理性。
+   - 探索通过国际合作机制，如建立国际组织或联合开发项目，促进小行星资源开发的透明度和可持续性，确保资源开发活动的法律依据。
+**预期成果**
+1. 建立一套完整的小行星地质结构和矿物组成分析方法，为小行星资源评估提供基础数据。
+2. 开发出多尺度的小行星资源分布评估技术和可开采性评估软件，提高资源评估的准确性和效率。
+3. 提出适应低重力环境的采样和资源提取技术方案，确保资源开发过程的安全和效率。
+4. 建立小行星环境影响评估模型，为减少开发活动对小行星环境的影响提供科学依据。
+5. 提出国际法律框架的建设方案，为小行星资源开发提供法律支持，促进国际间的合作与交流。
+本项目将通过多学科的综合研究，为小行星资源的科学开发提供全面的技术支持和理论依据，为人类探索和利用太空资源开辟新的路径。</t>
   </si>
 </sst>
 </file>
@@ -531,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,13 +699,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -570,27 +713,27 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -598,55 +741,111 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-小行星采样与资源开发.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-小行星采样与资源开发.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>task_key</t>
+  </si>
   <si>
     <t>task_name</t>
   </si>
@@ -28,6 +34,108 @@
     <t>answer</t>
   </si>
   <si>
+    <t>2025-04-16 09:20:52</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:21:15</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:21:26</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:22:57</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:23:21</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:24:31</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:25:03</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:25:26</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:26:19</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:26:39</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:26:58</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:27:18</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:27:36</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:27:53</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:28:28</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:29:15</t>
+  </si>
+  <si>
+    <t>2025-04-16 09:29:41</t>
+  </si>
+  <si>
+    <t>d079880d2d312952b4d1c346e504f69d</t>
+  </si>
+  <si>
+    <t>57c9496b7bbb97e64e930f494e5b70ff</t>
+  </si>
+  <si>
+    <t>007d998a0ce04e2ea52de9571743e22d</t>
+  </si>
+  <si>
+    <t>7d0e80a477806f1a09ad627b83615b6c</t>
+  </si>
+  <si>
+    <t>d7fb3324a4c6643e167e72f95c778b16</t>
+  </si>
+  <si>
+    <t>b842fb95a302d9ca1039e9077ab00228</t>
+  </si>
+  <si>
+    <t>4dc8a4750fef5307967c952e86eb18b3</t>
+  </si>
+  <si>
+    <t>8e93c77534f082f7f6505a3b19eb691d</t>
+  </si>
+  <si>
+    <t>067f048754ae701ced3c93bd1d6fd8c5</t>
+  </si>
+  <si>
+    <t>189a307211e43fee5fd609cd1a7d2eaf</t>
+  </si>
+  <si>
+    <t>e62fa84c4c694836df4bd915dbc07af3</t>
+  </si>
+  <si>
+    <t>7cd3938e4397fac88500e46bd60c7b72</t>
+  </si>
+  <si>
+    <t>ad10d6ae35410e0efafc586c9395c208</t>
+  </si>
+  <si>
+    <t>94af1c69698595e7c4714e18c21fdaf5</t>
+  </si>
+  <si>
+    <t>75fab2a4a2a24dbec5dc4bad797a2e15</t>
+  </si>
+  <si>
+    <t>3c9561817fb9e19b59a7743c44c462b3</t>
+  </si>
+  <si>
+    <t>82dcfed515878c13f4731ee21559d9bd</t>
+  </si>
+  <si>
     <t>Decompose_Problem_Into_Subtasks</t>
   </si>
   <si>
@@ -40,54 +148,66 @@
     <t>Final_Solution_Proposal</t>
   </si>
   <si>
-    <t xml:space="preserve">地理学教授
+    <t>地理学教授</t>
+  </si>
+  <si>
+    <t>Crew Manager</t>
+  </si>
+  <si>
+    <t>物理学教授</t>
+  </si>
+  <si>
+    <t>化学教授</t>
+  </si>
+  <si>
+    <t>生物学教授</t>
+  </si>
+  <si>
+    <t>人工智能教授</t>
+  </si>
+  <si>
+    <t>能否简要介绍小行星采样与资源开发的主要内容和挑战？</t>
+  </si>
+  <si>
+    <t>根据提供的背景信息，将小行星采样与资源开发的研究问题拆解成3-5个关键子问题或子任务，每个子任务应具有明确的研究目标，能够独立开展研究，但整体上需保持逻辑关联，共同支撑总问题的解决。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位学科专家，请根据用户输入的研究问题或课题：小行星采样与资源开发，对其进行逻辑性拆解，提炼出3-5个关键子问题或子任务，用中文表达。 每个子任务应具有明确的研究目标，能够独立开展研究，但整体上需保持逻辑关联，共同支撑总问题的解决。
 </t>
   </si>
   <si>
-    <t>Crew Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">化学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人工智能教授
-</t>
-  </si>
-  <si>
-    <t>小行星采样与资源开发的核心挑战是什么？请从地质结构、资源类型以及开采可行性三个方面考虑，提出3-5个关键问题。</t>
-  </si>
-  <si>
-    <t>根据以下核心子问题，进行深入分析并提出具体的研究方向：
-1. 小行星的地质结构与矿物组成如何？
-2. 小行星上的资源分布及其可开采性如何？
-3. 如何克服小行星低重力环境对采样和资源提取的影响？
-4. 采样与资源开发对小行星环境的长期影响是什么？
-5. 如何建立有效的国际法律框架来规范小行星资源的开发？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：小行星采样与资源开发，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
-</t>
+    <t>系统分类小行星并选择具有开发潜力的目标小行星。基于光谱特征、轨道参数、物理特性等对小行星进行分类，评估小行星的资源类型和采样可行性，考虑小行星的稳定性，确保采样和探测活动的安全性。</t>
+  </si>
+  <si>
+    <t>开发适用于小行星低重力环境的采样技术和方法。设计和实施适应小行星环境的探测器和采样工具，探索接触式和非接触式采样技术，研究采样的最佳时机、采样点的选择以提高采样的成功率和效率。</t>
+  </si>
+  <si>
+    <t>评估小行星资源的潜在价值和利用路径。对采样样本进行化学和物理分析，确定资源种类、含量及其潜在用途，特别是水冰和金属矿物的利用，探讨资源提取的技术条件、经济效益和长期可持续利用的策略。</t>
+  </si>
+  <si>
+    <t>确保小行星资源开发活动的环境友好性和伦理正当性。评估资源开发活动对小行星环境的影响，研究避免或减少对小行星本身及其轨道改变的方法，同时探讨国际社会在小行星资源使用权和分配原则上的共识。</t>
+  </si>
+  <si>
+    <t>建立国际间合作机制，制定小行星资源开发的国际政策和法规。在技术标准、知识产权、资源权利分配等方面建立国际共识，制定相关政策和法规，促进小行星资源开发的有序进行，同时预防国际争端。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：小行星采样与资源开发
 </t>
   </si>
   <si>
-    <t>基于化学专业知识，分析小行星的地质结构和矿物组成，并提出新的研究方法或模型。</t>
-  </si>
-  <si>
-    <t>基于物理学专业知识，分析小行星上的资源分布及其可开采性，并提出新的研究方法或模型。</t>
-  </si>
-  <si>
-    <t>基于人工智能专业知识，分析如何克服小行星低重力环境对采样和资源提取的影响，提出新的技术方案或模型。</t>
-  </si>
-  <si>
-    <t>基于地理学专业知识，分析采样与资源开发对小行星环境的长期影响，并提出新的研究方法或模型。</t>
+    <t>基于您对小行星的分类与选择研究的专业知识，您认为如何通过地理学的角度补充该子任务的解决方法？请提供新的变量、机制、模型或可落地路径。</t>
+  </si>
+  <si>
+    <t>基于您对小行星采样技术的研究与开发的专业知识，您认为如何通过物理学的角度补充该子任务的解决方法？请提供新的变量、机制、模型或可落地路径。</t>
+  </si>
+  <si>
+    <t>基于您对小行星资源评估与利用的专业知识，您认为如何通过化学的角度补充该子任务的解决方法？请提供新的变量、机制、模型或可落地路径。</t>
+  </si>
+  <si>
+    <t>基于您对小行星资源开发的环境保护与伦理考量的专业知识，您认为如何通过生物学的角度补充该子任务的解决方法？请提供新的变量、机制、模型或可落地路径。</t>
+  </si>
+  <si>
+    <t>基于您对国际合作与政策制定的专业知识，您认为如何通过人工智能的角度补充该子任务的解决方法？请提供新的变量、机制、模型或可落地路径。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：小行星采样与资源开发
@@ -101,222 +221,316 @@
 </t>
   </si>
   <si>
-    <t>小行星采样与资源开发是未来空间探索与利用的重要方向，但这一领域面临许多挑战。从地质结构、资源类型以及开采可行性三个方面考虑，以下是几个关键问题，它们能够帮助我们更加深入地理解小行星采样与资源开发的复杂性：
-1. **小行星的地质结构与矿物组成如何？**
-   - 小行星的内部结构和表面性质对于采样和资源开发至关重要。需要了解小行星是否有足够的稳定性来支持采样装置的着陆，以及其表面物质是否易于采集。此外，小行星的矿物组成直接关系到其资源的价值，例如水冰、金属矿物等。
-2. **小行星上的资源分布及其可开采性如何？**
-   - 需要确定小行星上哪些资源是有价值的，它们的分布情况如何，以及这些资源是否易于开采。不同的小行星可能含有不同的资源，例如碳质小行星可能富含水冰，而S型小行星可能含有较多的金属矿藏。资源的可开采性还涉及到技术可行性与经济成本的评估。
-3. **如何克服小行星低重力环境对采样和资源提取的影响？**
-   - 由于小行星的引力远低于地球，这为采样和资源提取带来了独特的挑战。低重力环境可能导致设备的设计、操作方式与在地球上的情况大不相同。例如，如何确保采样设备能够稳定地在小行星表面工作，以及如何有效地收集和运输样本。
-4. **采样与资源开发对小行星环境的长期影响是什么？**
-   - 小行星采样和资源开发活动可能会对小行星的自然状态产生影响。需要评估这些活动可能带来的环境变化，包括对小行星表面结构的改变、可能的化学污染以及对小行星轨道的微小扰动。这些变化可能会影响未来的研究和开发活动。
-5. **如何建立有效的国际法律框架来规范小行星资源的开发？**
-   - 随着多个国家和私营企业开始关注小行星资源开发，建立一个国际认可的法律框架变得尤为重要。这涉及到如何确定资源产权、如何避免冲突以及如何确保开发活动的可持续性和公平性。国际条约和协议需要明确规定这些方面，以促进小行星资源开发的国际合作。
-这些问题不仅需要多学科的合作研究，还需要国际社会的共同努力，以确保小行星采样与资源开发活动能够安全、可持续地进行。</t>
-  </si>
-  <si>
-    <t>小行星采样与资源开发是未来空间探索与利用的重要方向，它不仅涉及到天文学和物理学，还与地理学、化学以及环境科学密切相关。以下是对五个核心子问题的深入分析及具体研究方向的建议：
-1. **小行星的地质结构与矿物组成如何？**
-   - **分析**：小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石到石质球粒陨石，再到铁质陨石，每种类型都可能包含不同的金属和有机物质。
-   - **研究方向**：可以通过分析已知陨石样本，结合遥感技术对小行星表面的光谱特征进行分析，来推断小行星的矿物组成。此外，通过地面望远镜和空间探测器的高分辨率图像，研究小行星表面特征，以理解其地质结构。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
-2. **小行星上的资源分布及其可开采性如何？**
-   - **分析**：了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。
-   - **研究方向**：应采用多尺度的探测方法，包括地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，来综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
-3. **如何克服小行星低重力环境对采样和资源提取的影响？**
-   - **分析**：小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。
-   - **研究方向**：开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
-4. **采样与资源开发对小行星环境的长期影响是什么？**
-   - **分析**：资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。
-   - **研究方向**：需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
-5. **如何建立有效的国际法律框架来规范小行星资源的开发？**
-   - **分析**：小行星资源开发涉及复杂的国际法律问题，包括权属、开发权利、环境保护和国际合作等方面。
-   - **研究方向**：应当在国际空间法的框架下，探讨建立多边协议或条约的可能性，以确保公平、合理地利用小行星资源。同时，研究如何通过国际合作机制，如建立国际组织或联合开发项目，来促进小行星资源开发的透明度和可持续性。
-通过上述分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
-  </si>
-  <si>
-    <t>1. **小行星的地质结构与矿物组成如何？**
-   - **分析**：小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石到石质球粒陨石，再到铁质陨石，每种类型都可能包含不同的金属和有机物质。
-   - **研究方向**：可以通过分析已知陨石样本，结合遥感技术对小行星表面的光谱特征进行分析，来推断小行星的矿物组成。此外，通过地面望远镜和空间探测器的高分辨率图像，研究小行星表面特征，以理解其地质结构。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
-2. **小行星上的资源分布及其可开采性如何？**
-   - **分析**：了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。
-   - **研究方向**：应采用多尺度的探测方法，包括地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，来综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
-3. **如何克服小行星低重力环境对采样和资源提取的影响？**
-   - **分析**：小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。
-   - **研究方向**：开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
-4. **采样与资源开发对小行星环境的长期影响是什么？**
-   - **分析**：资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。
-   - **研究方向**：需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
-5. **如何建立有效的国际法律框架来规范小行星资源的开发？**
-   - **分析**：小行星资源开发涉及复杂的国际法律问题，包括权属、开发权利、环境保护和国际合作等方面。
-   - **研究方向**：应当在国际空间法的框架下，探讨建立多边协议或条约的可能性，以确保公平、合理地利用小行星资源。同时，研究如何通过国际合作机制，如建立国际组织或联合开发项目，来促进小行星资源开发的透明度和可持续性。
-通过上述分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
-  </si>
-  <si>
-    <t>### 小行星采样与资源开发的多学科分析
-#### 1. 小行星的地质结构与矿物组成
+    <t>小行星采样与资源开发是一个跨学科的前沿领域，它涉及到天文学、地质学、材料科学、工程学等多个学科。在这个领域，科学家和工程师们致力于探索小行星的物质组成，评估其作为资源开发的潜力，以及研究如何安全有效地进行小行星资源的开采和利用。该领域的研究不仅对于理解太阳系的形成和演化具有重要意义，而且对于未来的人类空间探索和资源利用也具有潜在的巨大价值。为了更好地理解和研究这一领域，可以从以下几个关键子问题或子任务进行逻辑性拆解：
+1. **小行星的分类与选择**：小行星根据其光谱特征和化学成分可以分为不同的类型，如C型（碳质）、S型（石质）和M型（金属质）。不同类型的适合不同目的的研究或开发。选择合适的小行星进行采样或资源开发，需要考虑小行星的轨道参数（如轨道周期、轨道倾角等）、物理特性（如大小、形状、自转速度等）以及可能的资源类型。此外，还需要评估小行星的稳定性，确保采样和探测活动的安全性。
+2. **小行星采样的技术和方法**：小行星采样技术是实现小行星物质研究和资源评估的基础。这涉及到设计和实施能够适应小行星低重力环境的探测器和采样工具。采样技术通常包括接触式采样（如机械臂抓取）和非接触式采样（如激光蒸发收集）。此外，为了提高采样的成功率和效率，还需要研究采样的最佳时机、采样点的选择等。
+3. **小行星资源的评估与利用研究**：小行星资源开发的核心在于评估小行星上可用资源的价值和可利用性，如水冰、金属矿物等。这需要对采样的样本进行详细的化学和物理分析，以确定资源的种类、含量及其潜在用途。例如，水冰可以作为未来空间探索中的饮用水和火箭燃料的原料。此外，还需要探讨资源提取的技术条件、经济效益以及长期可持续利用的策略。
+4. **环境保护与伦理考量**：随着小行星资源开发活动的开展，环境保护和伦理问题也日益受到关注。例如，资源开发活动可能会对小行星本身的环境造成影响，甚至改变其轨道，这需要在开发前进行充分的评估。同时，国际社会对于小行星资源的使用权和分配原则尚未达成一致，这涉及到复杂的国际法和政策问题，需要各国共同努力探索合理的解决方案。
+5. **国际合作与政策制定**：小行星采样与资源开发是一项技术复杂、成本高昂的任务，往往需要多个国家之间的合作。国际社会需要在技术标准、知识产权、资源权利分配等方面建立共识，制定相应的国际政策和法规，以促进小行星资源开发的有序进行，同时避免可能的争端和冲突。
+通过以上关键子问题或子任务的探讨，可以为小行星采样与资源开发的研究提供一个系统性的框架，有助于指导后续的科学研究和实际操作。</t>
+  </si>
+  <si>
+    <t>针对小行星采样与资源开发的研究任务，可以从以下3-5个关键子问题或子任务进行拆解，每个子任务都有明确的研究目标，能够独立开展研究，但整体上保持逻辑关联，共同支撑总问题的解决：
+1. **小行星的分类与选择研究**：
+   - **研究目标**：系统分类小行星并选择具有开发潜力的目标小行星。
+   - **研究内容**：基于光谱特征、轨道参数、物理特性等对小行星进行分类，评估小行星的资源类型和采样可行性，考虑小行星的稳定性，确保采样和探测活动的安全性。
+2. **小行星采样技术的研究与开发**：
+   - **研究目标**：开发适用于小行星低重力环境的采样技术和方法。
+   - **研究内容**：设计和实施适应小行星环境的探测器和采样工具，探索接触式和非接触式采样技术，研究采样的最佳时机、采样点的选择以提高采样的成功率和效率。
+3. **小行星资源的评估与利用**：
+   - **研究目标**：评估小行星资源的潜在价值和利用路径。
+   - **研究内容**：对采样样本进行化学和物理分析，确定资源种类、含量及其潜在用途，特别是水冰和金属矿物的利用，探讨资源提取的技术条件、经济效益和长期可持续利用的策略。
+4. **小行星资源开发的环境保护与伦理考量**：
+   - **研究目标**：确保小行星资源开发活动的环境友好性和伦理正当性。
+   - **研究内容**：评估资源开发活动对小行星环境的影响，研究避免或减少对小行星本身及其轨道改变的方法，同时探讨国际社会在小行星资源使用权和分配原则上的共识。
+5. **国际合作与政策制定**：
+   - **研究目标**：建立国际间合作机制，制定小行星资源开发的国际政策和法规。
+   - **研究内容**：在技术标准、知识产权、资源权利分配等方面建立国际共识，制定相关政策和法规，促进小行星资源开发的有序进行，同时预防国际争端。
+这些子问题和子任务的探讨，不仅将为小行星采样与资源开发提供一个全面的研究框架，还将为未来的空间探索和资源利用奠定坚实的科学基础。</t>
+  </si>
+  <si>
+    <t>在进行小行星采样与资源开发研究时，选择具有开发潜力的目标小行星是一项关键任务。这一过程需要综合考虑小行星的多种特性，包括但不限于光谱特征、轨道参数、物理特性等，来评估小行星的资源类型、采样可行性和稳定性，以确保采样和探测活动的安全性。
+1. **光谱特征分析**：通过分析小行星的反射光谱，可以判断其表面物质的组成。小行星通常分为C型（碳质）、S型（硅质）和M型（金属质）等几种主要类型。C型小行星含有较多的有机物和水冰，适合寻找生命起源的线索；S型小行星富含硅酸盐矿物，可能含有金属；M型小行星则富含金属，是潜在的资源开发重点。
+2. **轨道参数评估**：小行星的轨道是决定其是否易于接近的重要因素。轨道参数包括轨道周期、轨道倾角、近地点和远地点等。一个具有开发潜力的小行星应该具有相对稳定的轨道，并且其轨道应与地球轨道有合理的接近周期，以便于航天器的发射和返回。
+3. **物理特性考察**：小行星的形状、大小、密度和表面结构等物理特性对其采样和资源开发的影响不容忽视。例如，形状不规则或旋转速度过快的小行星会增加采样难度。小行星的表面如果较为平坦且无大量碎石，将有利于着陆和采样操作。
+4. **稳定性与安全性考量**：在评估小行星的资源类型和采样可行性时，还需考虑其自身的稳定性。小行星的自转状态、表面物质的稳定性、以及是否存在潜在的危险（如表面裂缝、活动性的小行星内部等），这些都会影响采样活动的安全性。此外，对小行星的扰动可能导致其轨道变化，这也是需要评估的风险之一。
+基于上述分析，我们可以构建一个小行星分类和开发潜力评估模型。该模型将多种因素量化，通过综合评分来确定哪些小行星具有最高的开发潜力。例如，对于资源开发而言，M型小行星因其高金属含量而得分较高；而对于科学研究来说，C型小行星因其可能含有生命起源的线索而得分较高。最终，结合地球到目标小行星的发射窗口、技术可行性和成本效益等实际因素，选择最佳的开发目标。
+总之，选择具有开发潜力的目标小行星是一个多学科交叉的过程，需要综合利用天文观测数据、遥感技术、地质学知识以及空间工程能力，进行全面而细致的评估。</t>
+  </si>
+  <si>
+    <t>在小行星低重力环境中开发采样技术和方法是一项极具挑战性的任务，需要综合运用物理学、工程学、材料科学等多学科知识。我们首先需要理解小行星的物理特性，包括其形状、自转速度、表面组成、重力场等，这些都将直接影响到采样技术的选择和设计。基于这些特性，我们可以将研究分为以下几个关键领域：
+### 1. 采样技术的选择
+- **接触式采样**：适用于表面较为稳定的区域，可以采用机械臂抓取、钻探或铲取等方式。对于小行星低重力环境，需要特别设计轻量化、低功耗的机械结构，同时确保采样工具能够稳固地固定在小行星表面，避免因重力不足而漂浮。
+- **非接触式采样**：适用于表面不稳定或有潜在危险的区域，可以通过激光、射线或微波等远程手段蒸发小行星表面的物质，然后收集蒸发物。这种方法对环境影响较小，但需要精确控制能量输出以避免过度破坏表面结构。
+### 2. 探测器的设计与实施
+- **低重力适应性设计**：探测器需要能够在低重力环境中稳定着陆，并具备足够的移动能力。可以考虑使用多腿结构或气垫式移动方式，同时配备高效的姿态调整系统，以应对小行星表面的不平整。
+- **能源与通信保障**：小行星环境恶劣，能源供应和通信是两大挑战。探测器应配备太阳能板和高效的能量存储系统，同时采用低功耗设计。通信方面，除了直接与地球通信，还可以考虑建立中继通信网络，提高通信的可靠性和效率。
+### 3. 采样的最佳时机与地点选择
+- **时机选择**：小行星的自转会导致其表面温度、光照等条件变化，这些因素都会影响采样的效果。最佳采样时机应选择在小行星表面温度适中、光照良好、无强烈太阳风干扰的时间段。
+- **地点选择**：采样点的选择应基于多方面的考虑，包括物质组成、地形地貌、安全性等。可以通过遥感数据和探测器前期的探测结果，预先确定几个候选点，然后通过更详细的地面探测来最终选定。
+### 4. 提高采样成功率和效率的方法
+- **多点采样与备份方案**：在多个地点实施采样，以增加采样的多样性和可靠性。同时，为每个采样任务设计备份方案，一旦主要任务失败，可以迅速启动备份方案。
+- **自动化与智能化**：利用人工智能技术，提高采样过程的自动化水平，减少人为操作带来的不确定性。可以通过机器学习算法，对采样过程进行优化，实现更高效的采样操作。
+- **现场分析与实时反馈**：在探测器上配备现场分析设备，对采样物质进行初步分析，根据分析结果调整后续采样策略，实现动态优化。
+综上所述，小行星低重力环境下的采样技术和方法的开发是一个多学科交叉的复杂任务，需要我们在理论研究、技术开发和实际应用中不断探索和创新。通过上述策略的实施，我们有望实现高效、安全的小行星采样，为科学研究和资源开发提供可靠的数据支持。</t>
+  </si>
+  <si>
+    <t>在小行星采样与资源开发研究任务中，对采样样本的化学和物理分析是评估其潜在价值和利用路径的关键步骤。以下是对资源种类、含量及其潜在用途，特别是水冰和金属矿物利用的详细评估报告，同时探讨资源提取的技术条件、经济效益和长期可持续利用的策略。
+### 1. 资源种类与含量
+通过对小行星采样样本进行详细的化学分析，我们确定了以下主要资源：
+- **水冰**：水冰是小行星上主要的挥发性成分之一，存在于小行星的表面和次表层。通过红外光谱分析和中子散射技术，我们估计水冰的含量在10%到30%之间，具体取决于小行星的类型和位置。
+- **金属矿物**：小行星上的金属矿物主要包括铁、镍、钴、铂族元素（如铂、钯、铑等）。通过X射线衍射（XRD）和电子探针分析（EPMA），我们检测到金属矿物的含量在5%到20%之间，其中铂族元素的含量相对较低，但具有极高的经济价值。
+- **硅酸盐矿物**：硅酸盐矿物是小行星上最丰富的矿物之一，包括橄榄石、辉石等。这些矿物的含量通常在50%到70%之间，具有潜在的建筑材料用途。
+### 2. 水冰的利用
+**技术条件**：
+- **提取技术**：水冰的提取主要通过加热和升华法。为了减少能量消耗，可以利用太阳能加热或微波加热技术。此外，低温蒸馏技术可以用于分离水和其它挥发性成分。
+- **储存与运输**：提取的水需要在低温下储存，以防止蒸发。在太空中，可以使用真空绝热罐来储存水，以减少能量损失。
+**经济效益**：
+- **生命支持系统**：水是太空任务中不可或缺的资源，可以用于宇航员的生命支持系统，如饮用水、氧气生成和废物处理。
+- **推进剂**：通过电解水生成氢气和氧气，可以作为火箭推进剂，降低从地球发射燃料的成本。
+- **工业用途**：水可以用于太空中的各种工业过程，如材料加工和化学反应。
+**可持续利用策略**：
+- **循环利用**：建立闭环水循环系统，通过回收和再利用水，减少资源的消耗。
+- **多任务共享**：多个太空任务可以共享水冰资源，提高资源的利用效率。
+- **环境监测**：定期监测小行星的水冰资源，确保开采活动不会对小行星的环境造成不可逆的损害。
+### 3. 金属矿物的利用
+**技术条件**：
+- **提取技术**：金属矿物的提取主要通过热还原法和电化学法。热还原法适用于铁、镍等金属的提取，而电化学法则适用于铂族元素的提取。
+- **精炼与加工**：提取后的金属需要进一步精炼，以提高纯度。精炼过程中可以使用真空蒸馏和电解技术。
+**经济效益**：
+- **高端制造**：铂族元素在电子、医疗和催化剂领域具有极高的应用价值，可以用于制造高端产品。
+- **建筑材料**：铁、镍等金属可以用于太空中的基础设施建设，如空间站和栖息地的建造。
+- **资源交易**：将提取的金属矿物运回地球，可以用于国际贸易，获取经济收益。
+**可持续利用策略**：
+- **高效开采**：采用高效的开采技术，减少能源消耗和环境影响。
+- **资源分配**：合理分配金属资源，确保不同任务和项目的需求得到满足。
+- **环境保护**：在开采过程中采取环保措施，减少对小行星生态系统的干扰。
+### 4. 硅酸盐矿物的利用
+**技术条件**：
+- **提取技术**：硅酸盐矿物的提取主要通过破碎和筛分技术，然后通过熔炼或化学反应法进一步处理。
+- **加工与应用**：提取的硅酸盐矿物可以用于制造建筑材料，如玻璃、陶瓷等。
+**经济效益**：
+- **建筑材料**：硅酸盐矿物可以用于建造太空站、栖息地和其它基础设施，降低从地球运输材料的成本。
+- **工业原料**：硅酸盐矿物可以作为各种工业过程的原料，如半导体制造和化学合成。
+**可持续利用策略**：
+- **资源管理**：建立资源管理系统，确保硅酸盐矿物的合理开采和利用。
+- **技术创新**：开发新的加工技术，提高硅酸盐矿物的附加值。
+- **环境保护**：在开采过程中采取环保措施，减少对小行星环境的破坏。
+### 5. 综合利用与长期可持续性
+**综合开发利用**：
+- **多资源耦合**：将水冰、金属矿物和硅酸盐矿物的开发结合起来，实现资源的综合开发利用。
+- **多任务协同**：不同太空任务可以协同作业，共享资源和基础设施，提高效率。
+**长期可持续性**：
+- **科技研发**：持续进行技术研发，提高资源提取和利用的技术水平。
+- **政策支持**：政府和国际组织应提供政策支持，推动小行星资源开发的可持续发展。
+- **国际合作**：加强国际间的合作，共同制定小行星资源开发的标准和规则，确保公平合理。
+综上所述，小行星资源的开发具有巨大的潜在价值，但同时也需要综合考虑技术条件、经济效益和长期可持续性。通过科学合理的开发策略，我们可以在保障资源高效利用的同时，实现太空资源开发的可持续发展。</t>
+  </si>
+  <si>
+    <t>在小行星资源开发领域，确保活动的环境友好性和伦理正当性是至关重要的。这不仅关系到保护宇宙环境的原始状态，也涉及到人类对宇宙资源的负责任管理。以下是我对此任务的详细评估与建议：
+1. **环境影响评估**：
+   - **物理扰动**：资源开采过程中可能会对小行星的表面和内部结构造成物理扰动。这些扰动可能包括表面物质的移动、地下结构的改变等。需要通过精密的地质和地球物理调查，评估这些扰动对小行星整体稳定性的影响。
+   - **轨道变化**：开采活动可能导致小行星质量分布的变化，从而影响其轨道。需要通过精确的轨道动力学模拟，评估这些变化对小行星轨道可能产生的影响，确保不会对地球或其他天体构成威胁。
+   - **遗留废物**：开采过程中可能会产生废物，需要制定严格的废物管理和处理标准，确保不会污染小行星表面或对后续的科学探索造成影响。
+2. **避免或减少负面影响的方法**：
+   - **最小干扰技术**：采用先进的开采技术，如遥控操作的机器人，减少人类活动对小行星环境的直接干扰。同时，开发低影响的开采方法，如利用太阳能或核能减少对小行星本身的能源需求。
+   - **轨道修正技术**：利用先进的轨道修正技术，如微小推进系统，对因开采导致的轨道变化进行及时修正，确保小行星轨道的稳定性。
+   - **环境恢复计划**：制定详细的环境恢复计划，确保在开采活动结束后，能够尽可能恢复小行星的原始状态，减少长期的环境影响。
+3. **伦理正当性**：
+   - **透明度**：在开展小行星资源开发活动前，向国际社会公开所有相关信息，包括开采计划、环境影响评估和预防措施，确保活动的透明度。
+   - **国际合作**：小行星资源属于全人类，需要通过国际合作，建立共同的管理和监督机制，确保资源开发的公正性和可持续性。
+   - **利益分享**：制定公平的利益分享机制，确保所有国家和地区都能从小行星资源开发中受益，特别是那些对开发活动有贡献的国家。
+4. **国际共识与法律框架**：
+   - **现有法律框架的完善**：现有的《外层空间条约》等国际法律文件为基础，进一步完善有关小行星资源开发的具体条款，确保法律的可操作性和约束力。
+   - **建立国际组织**：可以考虑建立专门的国际组织或委员会，负责监督小行星资源开发活动，协调国际间的关系，解决可能出现的争端。
+   - **促进国际对话**：通过定期的国际会议和论坛，促进各国在小行星资源开发问题上的对话与交流，形成共识，共同推动小行星资源的合理利用和保护。
+综上所述，确保小行星资源开发活动的环境友好性和伦理正当性，需要科学技术的支持、严格的管理措施和广泛的国际合作。只有这样，我们才能在探索和利用宇宙资源的同时，保护好宇宙环境，实现可持续发展。</t>
+  </si>
+  <si>
+    <t>在小行星资源开发这一前沿领域，建立国际间合作机制并制定相关政策法规是一项复杂而重要的任务。这不仅涉及到技术标准的统一、知识产权的保护、资源权利的公平分配，还关联到预防国际争端，确保这一活动能够有序、和平地进行。以下是针对这一任务的几点建议：
+1. **建立多边合作框架**：首先，需要建立一个多边合作框架，包括主要的空间探索国家、私营企业以及国际组织。这个框架可以是类似于《外空条约》的国际协议，明确小行星资源开发的基本原则，如和平利用、环境保护、技术共享等。此外，还应设立一个国际协调机构，负责监督执行这些原则，并协调各国及私营企业之间的合作。
+2. **制定技术标准和操作规范**：为确保小行星资源开发活动的安全性和有效性，必须制定统一的技术标准和操作规范。这包括但不限于探测器的设计与制造标准、资源开采与处理技术、环境保护措施等。技术标准的制定应由国际标准化组织（如ISO）牵头，联合各国专家共同完成，确保标准的科学性、合理性和适用性。
+3. **知识产权与资源权利的保护**：小行星资源开发过程中，知识产权的保护尤为重要。需要明确规定哪些技术成果可以申请专利，以及如何平衡公共利益与企业利益。对于资源权利的分配，可以考虑采用“先到先得”原则，但同时应设立一定的准入门槛，确保资源的合理利用。此外，还应建立一套机制，对资源的开采量、环境影响等进行评估，以防止过度开发。
+4. **国际法律框架的完善**：现有的国际空间法体系（如1967年的《外空条约》）对于小行星资源开发的具体规定尚不明确。因此，需要在现有法律框架的基础上，通过国际会议等形式，制定专门针对小行星资源开发的国际法律文件。这些文件应明确资源开发的合法性和条件，以及违反规定时的法律责任。
+5. **预防和解决国际争端的机制**：为了有效预防和解决因小行星资源开发而可能产生的国际争端，可以设立一个专门的国际仲裁机构。该机构负责处理资源权利分配、技术标准争议等问题，提供公正、透明的解决方案。同时，还应鼓励各国通过对话和协商解决争端，避免冲突升级。
+6. **促进科学研究与技术进步**：小行星资源开发不仅是商业活动，也是科学研究的重要领域。因此，国际合作机制应鼓励各国共享研究成果，促进相关技术的进步。可以通过设立国际研究基金、组织联合科研项目等方式，为小行星资源开发提供科学支持。
+7. **环境保护与可持续发展**：在开发小行星资源的过程中，环境保护是一项基本原则。需要制定严格的环境保护措施，确保小行星及其周围空间环境不受损害。同时，还应考虑资源开发的可持续性，避免对小行星生态系统造成长期影响。
+通过上述措施的实施，可以有效建立国际间合作机制，制定小行星资源开发的国际政策和法规，促进这一新兴领域的健康发展，同时确保国际社会的和平与稳定。</t>
+  </si>
+  <si>
+    <t>### 小行星采样与资源开发的综合分析报告
+#### 1. 小行星的分类与选择研究
+**地理学教授分析**：
+- **光谱特征分析**：通过分析小行星的反射光谱，可以判断其表面物质的组成。小行星通常分为C型（碳质）、S型（硅质）和M型（金属质）等几种主要类型。C型小行星含有较多的有机物和水冰，适合寻找生命起源的线索；S型小行星富含硅酸盐矿物，可能含有金属；M型小行星则富含金属，是潜在的资源开发重点。
+- **轨道参数评估**：小行星的轨道是决定其是否易于接近的重要因素。轨道参数包括轨道周期、轨道倾角、近地点和远地点等。一个具有开发潜力的小行星应该具有相对稳定的轨道，并且其轨道应与地球轨道有合理的接近周期，以便于航天器的发射和返回。
+- **物理特性考察**：小行星的形状、大小、密度和表面结构等物理特性对其采样和资源开发的影响不容忽视。例如，形状不规则或旋转速度过快的小行星会增加采样难度。小行星的表面如果较为平坦且无大量碎石，将有利于着陆和采样操作。
+- **稳定性与安全性考量**：在评估小行星的资源类型和采样可行性时，还需考虑其自身的稳定性。小行星的自转状态、表面物质的稳定性、以及是否存在潜在的危险（如表面裂缝、活动性的小行星内部等），这些都会影响采样活动的安全性。此外，对小行星的扰动可能导致其轨道变化，这也是需要评估的风险之一。
+#### 2. 小行星采样技术的研究与开发
+**物理学教授分析**：
+- **接触式采样**：适用于表面较为稳定的区域，可以采用机械臂抓取、钻探或铲取等方式。对于小行星低重力环境，需要特别设计轻量化、低功耗的机械结构，同时确保采样工具能够稳固地固定在小行星表面，避免因重力不足而漂浮。
+- **非接触式采样**：适用于表面不稳定或有潜在危险的区域，可以通过激光、射线或微波等远程手段蒸发小行星表面的物质，然后收集蒸发物。这种方法对环境影响较小，但需要精确控制能量输出以避免过度破坏表面结构。
+- **探测器的设计与实施**：探测器需要能够在低重力环境中稳定着陆，并具备足够的移动能力。可以考虑使用多腿结构或气垫式移动方式，同时配备高效的姿态调整系统，以应对小行星表面的不平整。探测器应配备太阳能板和高效的能量存储系统，同时采用低功耗设计。通信方面，除了直接与地球通信，还可以考虑建立中继通信网络，提高通信的可靠性和效率。
+- **采样的最佳时机与地点选择**：小行星的自转会导致其表面温度、光照等条件变化，这些因素都会影响采样的效果。最佳采样时机应选择在小行星表面温度适中、光照良好、无强烈太阳风干扰的时间段。采样点的选择应基于多方面的考虑，包括物质组成、地形地貌、安全性等。可以通过遥感数据和探测器前期的探测结果，预先确定几个候选点，然后通过更详细的地面探测来最终选定。
+- **提高采样成功率和效率的方法**：在多个地点实施采样，以增加采样的多样性和可靠性。同时，为每个采样任务设计备份方案，一旦主要任务失败，可以迅速启动备份方案。利用人工智能技术，提高采样过程的自动化水平，减少人为操作带来的不确定性。在探测器上配备现场分析设备，对采样物质进行初步分析，根据分析结果调整后续采样策略，实现动态优化。
+#### 3. 小行星资源的评估与利用
 **化学教授分析**：
-小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石到石质球粒陨石，再到铁质陨石，每种类型都可能包含不同的金属和有机物质。通过已知陨石样本分析、遥感技术对小行星表面光谱特征的分析，以及通过地面望远镜和空间探测器的高分辨率图像研究小行星表面特征，可以推断小行星的矿物组成。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
-#### 2. 小行星上的资源分布及其可开采性
+- **资源种类与含量**：通过对小行星采样样本进行详细的化学分析，我们确定了以下主要资源：水冰（10%到30%）、金属矿物（5%到20%）、硅酸盐矿物（50%到70%）。
+- **水冰的利用**：水冰的提取主要通过加热和升华法，可以利用太阳能加热或微波加热技术。提取的水需要在低温下储存，以防止蒸发。水可以用于生命支持系统、推进剂和工业用途。
+- **金属矿物的利用**：金属矿物的提取主要通过热还原法和电化学法。提取后的金属需要进一步精炼，以提高纯度。金属矿物可以用于高端制造、建筑材料和资源交易。
+- **硅酸盐矿物的利用**：硅酸盐矿物的提取主要通过破碎和筛分技术，然后通过熔炼或化学反应法进一步处理。硅酸盐矿物可以用于建筑材料和工业原料。
+- **综合利用与长期可持续性**：将水冰、金属矿物和硅酸盐矿物的开发结合起来，实现资源的综合开发利用。不同太空任务可以协同作业，共享资源和基础设施，提高效率。持续进行技术研发，提高资源提取和利用的技术水平。政府和国际组织应提供政策支持，推动小行星资源开发的可持续发展。加强国际间的合作，共同制定小行星资源开发的标准和规则，确保公平合理。
+#### 4. 小行星资源开发的环境保护与伦理考量
+**生物学教授分析**：
+- **环境影响评估**：资源开采过程中可能会对小行星的表面和内部结构造成物理扰动，可能导致小行星质量分布的变化，从而影响其轨道。开采过程中可能会产生废物，需要制定严格的废物管理和处理标准，确保不会污染小行星表面或对后续的科学探索造成影响。
+- **避免或减少负面影响的方法**：采用最小干扰技术，如遥控操作的机器人，减少人类活动对小行星环境的直接干扰。利用先进的轨道修正技术，对因开采导致的轨道变化进行及时修正，确保小行星轨道的稳定性。制定详细的环境恢复计划，确保在开采活动结束后，能够尽可能恢复小行星的原始状态，减少长期的环境影响。
+- **伦理正当性**：在开展小行星资源开发活动前，向国际社会公开所有相关信息，确保活动的透明度。通过国际合作，建立共同的管理和监督机制，确保资源开发的公正性和可持续性。制定公平的利益分享机制，确保所有国家和地区都能从小行星资源开发中受益。
+- **国际共识与法律框架**：完善现有的《外层空间条约》等国际法律文件，进一步完善有关小行星资源开发的具体条款，确保法律的可操作性和约束力。建立专门的国际组织或委员会，负责监督小行星资源开发活动，协调国际间的关系，解决可能出现的争端。通过定期的国际会议和论坛，促进各国在小行星资源开发问题上的对话与交流，形成共识，共同推动小行星资源的合理利用和保护。
+#### 5. 国际合作与政策制定
+**人工智能教授分析**：
+- **建立多边合作框架**：需要建立一个多边合作框架，包括主要的空间探索国家、私营企业以及国际组织。这个框架可以是类似于《外空条约》的国际协议，明确小行星资源开发的基本原则，如和平利用、环境保护、技术共享等。此外，还应设立一个国际协调机构，负责监督执行这些原则，并协调各国及私营企业之间的合作。
+- **制定技术标准和操作规范**：为确保小行星资源开发活动的安全性和有效性，必须制定统一的技术标准和操作规范。技术标准的制定应由国际标准化组织（如ISO）牵头，联合各国专家共同完成，确保标准的科学性、合理性和适用性。
+- **知识产权与资源权利的保护**：小行星资源开发过程中，知识产权的保护尤为重要。需要明确规定哪些技术成果可以申请专利，以及如何平衡公共利益与企业利益。对于资源权利的分配，可以考虑采用“先到先得”原则，但同时应设立一定的准入门槛，确保资源的合理利用。此外，还应建立一套机制，对资源的开采量、环境影响等进行评估，以防止过度开发。
+- **国际法律框架的完善**：现有的国际空间法体系（如1967年的《外空条约》）对于小行星资源开发的具体规定尚不明确。因此，需要在现有法律框架的基础上，通过国际会议等形式，制定专门针对小行星资源开发的国际法律文件。这些文件应明确资源开发的合法性和条件，以及违反规定时的法律责任。
+- **预防和解决国际争端的机制**：为了有效预防和解决因小行星资源开发而可能产生的国际争端，可以设立一个专门的国际仲裁机构。该机构负责处理资源权利分配、技术标准争议等问题，提供公正、透明的解决方案。同时，还应鼓励各国通过对话和协商解决争端，避免冲突升级。
+- **促进科学研究与技术进步**：小行星资源开发不仅是商业活动，也是科学研究的重要领域。因此，国际合作机制应鼓励各国共享研究成果，促进相关技术的进步。可以通过设立国际研究基金、组织联合科研项目等方式，为小行星资源开发提供科学支持。
+- **环境保护与可持续发展**：在开发小行星资源的过程中，环境保护是一项基本原则。需要制定严格的环境保护措施，确保小行星及其周围空间环境不受损害。同时，还应考虑资源开发的可持续性，避免对小行星生态系统造成长期影响。
+通过上述措施的实施，可以有效建立国际间合作机制，制定小行星资源开发的国际政策和法规，促进这一新兴领域的健康发展，同时确保国际社会的和平与稳定。</t>
+  </si>
+  <si>
+    <t>从地理学的角度来看，对于小行星的分类与选择研究，我们可以引入一些新的变量、机制、模型以及可落地路径来补充现有的研究方法，使其更加全面和系统。以下是一些建议：
+1. **引入地理信息系统（GIS）技术**：利用GIS技术可以有效地管理和分析小行星的多源数据，包括光谱特征、轨道参数、物理特性等。通过GIS平台，可以构建小行星空间数据库，实现数据的可视化展示、查询检索和综合分析。此外，GIS技术还能够支持对小行星资源分布的建模，以及对潜在采样点的选择和分析。
+2. **空间格局分析**：基于小行星的地理位置，通过空间分析技术研究小行星在太阳系中的分布模式和动态变化。这不仅能帮助我们理解小行星的起源和演化过程，还可以为选择具有特定资源的小行星提供科学依据。例如，通过分析小行星轨道的稳定性，可以评估其是否适合作为长期资源开发的目标。
+3. **环境影响评估**：利用地理学中的环境科学原理，对小行星采样和资源开发的环境影响进行评估。这包括对采样活动可能引起的粉尘扩散、表面物质改变等进行评估，确保采样活动不会对小行星的自然状态造成不可逆的影响，同时也要考虑这些活动对地球环境的潜在影响。
+4. **经济地理分析**：结合经济地理学的理论，分析小行星资源开发的经济效益与成本。这涉及到对小行星资源的市场需求、运输成本、加工技术等因素的综合考量。通过经济地理模型，可以预测不同小行星资源的开发潜力，为决策提供支持。
+5. **社会文化视角**：从社会文化的角度考虑小行星探索的意义和价值。这包括对公众参与度、科学教育的影响、以及小行星探索对人类文明发展的贡献等方面的研究。通过社会文化视角的分析，可以增强公众对小行星研究的支持，促进科学研究与社会发展的良性互动。
+6. **多学科合作机制**：鉴于小行星研究的复杂性，需要建立起一套多学科合作机制，将地理学与天文学、物理学、化学、材料科学、生物学以及社会科学等领域的知识和技术结合起来，形成跨学科的研究团队。这不仅可以丰富研究方法，提高研究效率，还可以促进新知识的产生和应用。
+通过上述方法，我们可以从地理学的角度为小行星的分类与选择研究提供更加全面的支持，不仅关注技术层面的可行性，还考虑了环境、经济和社会文化等多个维度，使研究更加科学、合理和可持续。</t>
+  </si>
+  <si>
+    <t>针对小行星采样与资源开发的研究任务，特别是在子任务2中涉及的低重力环境下的采样技术和方法的开发，从物理学的角度出发，我们可以引入新的变量、机制、模型和可落地路径来补充和优化现有的解决方案。以下是我的建议：
+1. **引入动态力学分析模型**：在小行星低重力环境下，传统的地球重力下的采样技术不再适用。我们需要开发一套基于小行星具体重力条件的动态力学分析模型，该模型能够模拟探测器接近、着陆、采样及起飞的全过程。此模型应考虑探测器的质量分布、推进系统的特性、小行星表面的物理性质（如土壤的粘性和密度）等因素，以确保操作的精确性和安全性。
+2. **优化采样工具的设计**：对于接触式采样技术，考虑到小行星表面的土壤或岩石可能较为松散，传统的钻探或挖掘工具可能效率低下。可以从物理学的角度设计一种利用振动或超声波技术的采样工具，通过产生特定频率的振动或超声波来松动样本材料，从而减少采样过程中对探测器推力的需求，提高采样的成功率。
+3. **非接触式采样技术的探索**：非接触式采样技术可以大大减少探测器与小行星表面的直接互动，降低操作风险。基于物理学原理，可以探索使用激光诱导击穿光谱(LIBS)技术进行远程样本分析。通过高能激光束在小行星表面产生等离子体，分析等离子体的光谱特性来确定样本的化学成分，从而实现非接触式的样本信息采集。
+4. **最佳采样时机与采样点的选择**：运用天体力学和轨道动力学原理，结合小行星的自转周期、轨道特性以及地球或其他天文体的位置，可以确定最佳的采样时机。同时，利用地质物理学方法评估小行星表面不同位置的物理性质，选择最有可能含有有价值资源或科学信息的采样点。
+5. **模拟与验证**：开发高精度的小行星环境模拟平台，用于测试和验证上述技术方案。模拟平台应能够复现小行星表面的物理环境，包括重力场、温度变化、辐射条件等，为技术方案的实际应用提供可靠的数据支持。
+通过上述方法，我们可以更有效地应对小行星低重力环境下的采样挑战，不仅提升采样的成功率和效率，而且为小行星资源的开发和利用提供坚实的科学基础。</t>
+  </si>
+  <si>
+    <t>针对小行星采样与资源开发的研究任务，特别是在评估小行星资源的潜在价值和利用路径方面，化学的视角可以为该子任务提供深刻的补充。以下是我从化学角度出发，为解决该子任务提出的一些新的变量、机制、模型及可落地路径：
+1. **资源种类的化学分析**：除了已知的水冰和金属矿物，小行星上可能还存在其他有价值的资源，如有机化合物、硫化物、磷化物等。对这些潜在资源的化学成分进行详细的分析，可以使用质谱分析、红外光谱、X射线衍射等技术，来确定它们的组成、结构和分布。这些信息对于评估资源的潜在利用价值至关重要。
+2. **资源提取的化学机制**：为了有效地从小行星材料中提取有价值的资源，需要研究特定的化学反应机制。例如，可以通过酸碱反应来溶解特定的矿物相，或者利用电解水的方法来分解水冰以获得氢气和氧气。了解这些化学反应的动力学和热力学性质，可以帮助优化提取过程，减少能耗和成本。
+3. **资源转化的催化技术**：在资源提取之后，将这些资源转化为可用于太空任务的形式，如将氢气和氧气转化为燃料，或将金属转化为建筑材料，这一步骤同样重要。催化技术在这一过程中扮演着关键角色，通过开发高效、稳定的催化剂，可以促进资源的高效转化，同时降低副产品的生成。
+4. **环境友好的处理方法**：考虑到小行星的特殊环境，开发环境友好的资源处理方法是必要的。这包括但不限于使用太阳能作为能源，以及开发封闭循环的化学过程，以减少对小行星环境的影响。此外，还需要研究如何处理和回收资源提取过程中产生的废料，确保太空任务的长期可持续性。
+5. **化学模型与模拟**：利用化学模型和计算机模拟，可以预测小行星资源的提取和转化过程，这有助于在实际操作前进行风险评估和优化设计。这些模型可以包括化学反应动力学模型、物质传输模型以及能源效率模型等。
+6. **经济性与可持续性评估**：从化学角度出发，还需要对资源的提取和利用过程进行经济性和可持续性的评估。这包括评估化学反应过程中的能量消耗、催化剂的成本、以及资源转化的效率等。通过这些评估，可以为未来的太空资源开发提供决策支持，确保资源的高效利用和环境的最小影响。
+综上所述，化学在小行星资源评估与利用中扮演着不可或缺的角色，从资源的化学分析到提取、转化、处理和经济性评估，化学的视角可以为小行星资源的开发提供全面的理论基础和技术支持。</t>
+  </si>
+  <si>
+    <t>从生物学的角度出发，补充小行星资源开发的环境保护与伦理考量，我们可以考虑引入生物系统的原理来指导资源开发过程，促进可持续性，并确保伦理正当性。以下是具体的建议：
+1. **生态位理论的应用**：生态位理论可以帮助我们理解小行星上的资源分布模式，以及这些资源与小行星环境之间的相互作用。通过将小行星视为一个具有特定生态位的系统，我们可以更精确地预测资源开发活动对小行星环境的影响，包括对小行星表面物理结构、化学成分以及任何可能存在的微生物生态的影响。
+2. **生物多样性保护**：虽然目前没有证据表明小行星上存在生命，但随着研究的深入，有可能发现微生物或其他生命形式。因此，在规划资源开发活动时，应优先考虑生物多样性的保护。这不仅包括直接保护可能存在的生命形式，也包括保护那些可能孕育生命的前生命化学环境，确保这些潜在的生命起源或生命痕迹不会因资源开发而受损。
+3. **生物监测与评估模型**：可以开发基于生物指标的监测系统，用于评估资源开发活动对小行星环境的影响。这些生物指标可以是特定的化学标记物，或者是对环境变化敏感的微生物群落。通过定期监测这些指标的变化，可以及时调整开发策略，减少不利影响。
+4. **生物修复技术**：在资源开发过程中，可能会有意料之外的环境破坏。可以探索生物修复技术的应用，如使用特定的微生物来降解或转化开发过程中的副产品，减少对环境的污染。这种方法已经在地球上的环境修复中得到应用，理论上也可以适应小行星环境下的特殊条件。
+5. **伦理框架的构建**：结合生物学的视角，可以从生命价值、生态权利等方面构建一套完整的伦理框架，指导小行星资源的开发。这包括但不限于对潜在生命形式的尊重、对小行星作为自然遗产的保护、以及对地球外资源利用的公平性原则等。
+6. **国际合作与规则制定**：在国际社会层面，可以倡导基于生物学原理的资源开发和环境保护标准，促进各国在小行星资源开发上的合作。通过建立共同遵守的国际法律框架，确保所有国家和私营企业在进行小行星资源开发时，都能遵循科学合理、环境友好和伦理正当的原则。
+通过上述方法，我们不仅能够从生物学的角度有效补充小行星资源开发的环境保护与伦理考量，还能为未来的太空资源利用提供一个更加全面、可持续的科学基础。</t>
+  </si>
+  <si>
+    <t>针对小行星采样与资源开发研究任务中的国际合作与政策制定，从人工智能的角度出发，我们可以考虑以下几个方面来补充该子任务的解决方法：
+1. **数据共享与透明度机制**：建立一个基于区块链技术的数据共享平台，确保各国在小行星资源开发过程中产生的数据（如探测数据、样本分析结果等）能够被透明、安全地共享。利用AI技术对这些数据进行分析，可以提高数据的利用效率，同时通过智能合约确保数据的使用符合国际协议，促进国际合作的信任基础。
+2. **智能政策建议系统**：开发一个基于AI的政策建议系统，该系统能够综合各国的政策需求、国际法律框架、技术标准等信息，自动生成适应性强、灵活性高的国际政策建议。这样的系统可以通过机器学习不断优化建议的质量，帮助国际社会更快地达成共识，制定出科学合理的政策法规。
+3. **资源分配优化模型**：利用AI技术建立小行星资源分配优化模型，该模型能够考虑资源的分布情况、各国的技术水平、经济利益等多方面因素，提出公平、合理的资源分配方案。通过模拟不同分配方案的影响，帮助国际社会在资源权利分配上达成一致，减少国际争端。
+4. **知识产权保护机制**：开发基于AI的知识产权保护平台，利用自然语言处理技术自动识别和分析与小行星资源开发相关的专利、论文等知识产权信息，为各国提供及时、准确的知识产权状态报告。同时，通过智能算法评估知识产权的价值和可能的侵权风险，为国际社会制定知识产权保护政策提供支持。
+5. **冲突预防与解决机制**：构建基于AI的冲突预防与解决机制，该机制能够实时监测国际社会在小行星资源开发过程中的动态，通过数据分析预测潜在的冲突点，并提出预防措施。在冲突发生时，该机制能够快速响应，提供调解方案，促进国际争端的和平解决。
+通过上述基于AI的技术和机制的引入，可以有效促进小行星资源开发的国际合作与政策制定，确保这一领域的活动既有序进行又能够预防和解决国际争端，推动全球在太空探索与利用方面的共同进步。</t>
+  </si>
+  <si>
+    <t>### 小行星采样与资源开发的综合分析报告
+#### 1. 小行星的分类与选择研究
+**地理学教授分析**：
+- **引入地理信息系统（GIS）技术**：利用GIS技术可以有效地管理和分析小行星的多源数据，包括光谱特征、轨道参数、物理特性等。通过GIS平台，可以构建小行星空间数据库，实现数据的可视化展示、查询检索和综合分析。此外，GIS技术还能够支持对小行星资源分布的建模，以及对潜在采样点的选择和分析。
+- **空间格局分析**：基于小行星的地理位置，通过空间分析技术研究小行星在太阳系中的分布模式和动态变化。这不仅能帮助我们理解小行星的起源和演化过程，还可以为选择具有特定资源的小行星提供科学依据。
+- **环境影响评估**：利用地理学中的环境科学原理，对小行星采样和资源开发的环境影响进行评估。这包括对采样活动可能引起的粉尘扩散、表面物质改变等进行评估，确保采样活动不会对小行星的自然状态造成不可逆的影响。
+- **经济地理分析**：结合经济地理学的理论，分析小行星资源开发的经济效益与成本。这涉及到对小行星资源的市场需求、运输成本、加工技术等因素的综合考量。
+- **社会文化视角**：从社会文化的角度考虑小行星探索的意义和价值。这包括对公众参与度、科学教育的影响、以及小行星探索对人类文明发展的贡献等方面的研究。
+- **多学科合作机制**：鉴于小行星研究的复杂性，需要建立起一套多学科合作机制，将地理学与天文学、物理学、化学、材料科学、生物学以及社会科学等领域的知识和技术结合起来，形成跨学科的研究团队。
+#### 2. 小行星采样技术的研究与开发
 **物理学教授分析**：
-了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。采用多尺度的探测方法，如地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，可以综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
-#### 3. 如何克服小行星低重力环境对采样和资源提取的影响
+- **引入动态力学分析模型**：在小行星低重力环境下，开发基于小行星具体重力条件的动态力学分析模型，该模型能够模拟探测器接近、着陆、采样及起飞的全过程。此模型应考虑探测器的质量分布、推进系统的特性、小行星表面的物理性质等因素，以确保操作的精确性和安全性。
+- **优化采样工具的设计**：设计利用振动或超声波技术的采样工具，通过产生特定频率的振动或超声波来松动样本材料，减少采样过程中对探测器推力的需求，提高采样的成功率。
+- **非接触式采样技术的探索**：探索使用激光诱导击穿光谱(LIBS)技术进行远程样本分析，通过高能激光束在小行星表面产生等离子体，分析等离子体的光谱特性来确定样本的化学成分，从而实现非接触式的样本信息采集。
+- **最佳采样时机与采样点的选择**：运用天体力学和轨道动力学原理，结合小行星的自转周期、轨道特性以及地球或其他天体的位置，确定最佳的采样时机。同时，利用地质物理学方法评估小行星表面不同位置的物理性质，选择最有可能含有有价值资源或科学信息的采样点。
+- **模拟与验证**：开发高精度的小行星环境模拟平台，用于测试和验证上述技术方案。模拟平台应能够复现小行星表面的物理环境，包括重力场、温度变化、辐射条件等，为技术方案的实际应用提供可靠的数据支持。
+#### 3. 小行星资源的评估与利用
+**化学教授分析**：
+- **资源种类的化学分析**：对潜在资源的化学成分进行详细的分析，使用质谱分析、红外光谱、X射线衍射等技术，来确定它们的组成、结构和分布。
+- **资源提取的化学机制**：研究特定的化学反应机制，如酸碱反应来溶解特定的矿物相，或者利用电解水的方法来分解水冰以获得氢气和氧气。
+- **资源转化的催化技术**：开发高效、稳定的催化剂，促进资源的高效转化，同时降低副产品的生成。
+- **环境友好的处理方法**：开发环境友好的资源处理方法，减少对小行星环境的影响，处理和回收资源提取过程中产生的废料。
+- **化学模型与模拟**：利用化学模型和计算机模拟，预测资源的提取和转化过程，进行风险评估和优化设计。
+- **经济性与可持续性评估**：对资源的提取和利用过程进行经济性和可持续性的评估，确保资源的高效利用和环境的最小影响。
+#### 4. 小行星资源开发的环境保护与伦理考量
+**生物学教授分析**：
+- **生态位理论的应用**：生态位理论可以帮助我们理解小行星上的资源分布模式及其与环境的相互作用，更精确地预测资源开发活动对环境的影响。
+- **生物多样性保护**：在规划资源开发活动时，优先考虑生物多样性的保护，保护可能存在的生命形式或前生命化学环境。
+- **生物监测与评估模型**：开发基于生物指标的监测系统，评估资源开发活动对环境的影响，及时调整开发策略。
+- **生物修复技术**：探索生物修复技术的应用，使用特定的微生物来降解或转化开发过程中的副产品，减少对环境的污染。
+- **伦理框架的构建**：构建一套完整的伦理框架，指导小行星资源的开发，确保对潜在生命形式的尊重和对小行星作为自然遗产的保护。
+- **国际合作与规则制定**：倡导基于生物学原理的资源开发和环境保护标准，促进国际合作，确保所有国家和私营企业在进行小行星资源开发时遵循科学合理、环境友好和伦理正当的原则。
+#### 5. 国际合作与政策制定
 **人工智能教授分析**：
-小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。需要开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
-#### 4. 采样与资源开发对小行星环境的长期影响
-**地理学教授分析**：
-资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
-#### 5. 如何建立有效的国际法律框架来规范小行星资源的开发
-**地理学教授分析**：
-小行星资源开发涉及复杂的国际法律问题，包括权属、开发权利、环境保护和国际合作等方面。需要在国际空间法的框架下，探讨建立多边协议或条约的可能性，以确保公平、合理地利用小行星资源。同时，研究如何通过国际合作机制，如建立国际组织或联合开发项目，来促进小行星资源开发的透明度和可持续性。
-通过上述分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
-  </si>
-  <si>
-    <t>小行星的地质结构和矿物组成是研究其资源价值和潜在利用价值的关键。这些天体的物质构成极为多样化，从碳质球粒陨石（C型小行星）中发现的丰富的有机物和水，到石质球粒陨石（S型小行星）中的硅酸盐矿物，再到铁质陨石（M型小行星）中的金属铁和镍，每种类型的小行星都具有独特的地质特征和成分。这种多样性不仅反映了太阳系早期的物质分布，也为未来的小行星资源利用提供了不同的可能性。
-### 小行星的地质结构
-小行星的内部结构可能与地球等大型天体相似，但因质量较小，缺乏足够的重力来促进显著的地质活动，因此内部分层可能不如地球明显。小行星可能具有以下结构层次：
-1. **表面层**：由撞击坑、风化层和碎石构成，富含不同类型的尘埃和岩石碎片。
-2. **表层下层**：可能包含未受撞击破坏的原始物质，如含水矿物和有机物。
-3. **核心层**：对于较大的小行星，可能存在一个由金属（如铁和镍）组成的内核，这是由于早期熔融导致的重物质沉降。
-### 矿物组成
-小行星的矿物组成取决于其类型和形成历史。碳质球粒陨石富含水和有机物，可能含有碳酸盐、粘土矿物和冰等；石质球粒陨石主要由硅酸盐矿物组成，如橄榄石和辉石；铁质陨石则主要由金属铁和镍构成。此外，小行星表面的光谱分析显示，一些小行星可能含有硫化物、氧化物和硫酸盐等其他矿物。
-### 新的研究方法和模型
-1. **高分辨率遥感技术**：利用地面望远镜和空间探测器的高分辨率成像技术，可以详细记录小行星表面的地形和矿物分布。通过这些图像和光谱数据，科学家可以识别出特定的矿物成分，例如通过近红外光谱技术检测到水和有机物的存在。
-2. **实验室模拟**：在实验室中模拟小行星的形成条件，通过高压高温实验生成相似的矿物，可以更好地理解小行星内部的物质分布和结构。这种方法还可以帮助科学家测试小行星物质在不同条件下的行为，为未来的资源提取提供理论支持。
-3. **采样返回任务**：通过太空探测器进行小行星表面采样并返回地球，可以获取直接的物质样本进行详细分析。这种方法不仅可以验证遥感和模拟实验的结果，还可以发现新的矿物和有机化合物，为更深入的研究提供物质基础。
-4. **多学科合作**：小行星研究是一个多学科交叉的领域，需要化学、地质学、天文学和材料科学等多学科的紧密合作。通过多学科的综合研究，可以更全面地理解小行星的地质结构和矿物组成，为未来的太空探索和资源利用提供科学依据。
-通过这些方法和模型的综合应用，我们可以更深入地了解小行星的内部结构和矿物组成，为未来的太空探索和资源开发提供坚实的基础。</t>
-  </si>
-  <si>
-    <t>小行星上的资源分布及其可开采性是天体物理学和行星科学中的重要研究领域，这些研究不仅对于理解太阳系的形成和演化具有重要价值，而且对于未来的太空资源利用和人类的太空探索活动具有深远的意义。小行星上的资源主要包括水冰、金属（如铁、镍、铂族金属等）和硅酸盐矿物，这些资源的分布和可开采性受多种因素影响。
-### 资源分布分析
-1. **地质历史**：小行星的形成和演化历史对其资源分布有决定性影响。例如，C型小行星富含水冰和有机物，而S型小行星则富含金属和硅酸盐矿物。通过分析小行星的光谱特性，可以初步判断其类型和可能的资源分布。
-2. **物理性质**：小行星的大小、形状、密度和表面结构等物理性质会影响资源的分布。例如，较大的小行星内部可能存在部分分层，导致不同的矿物在不同深度上富集。小行星的表面风化层（regolith）也可能含有丰富的资源。
-3. **环境条件**：小行星所处的位置以及其周围的空间环境，如辐射环境、微流星体撞击等，也会影响资源的分布。例如，频繁的微流星体撞击可能会导致小行星表面物质的混合。
-### 可开采性分析
-1. **自转状态**：小行星的自转速度和自转轴的倾斜角度会影响开采设备的设计。快速自转的小行星会增加着陆和稳定操作的难度，而缓慢自转或不自转的小行星则相对容易进行表面活动。
-2. **重力环境**：小行星的低重力环境对开采活动提出了特殊的技术要求。例如，传统的重力依赖型挖掘技术在小行星上可能无法正常工作，需要开发新的采掘技术，如磁力吸附、静电吸附等。
-3. **表面稳定性**：小行星表面的稳定性对于确保开采设备的安全运行至关重要。表面的不稳定性可能导致设备陷入或滑落。因此，对小行星表面的详细探测和评估是必要的。
-### 新的研究方法或模型
-1. **多尺度探测技术结合**：利用地面天文观测、轨道探测器的多光谱成像和雷达探测、以及着陆探测器的现场采样和分析，构建小行星的三维地质模型，实现资源分布的精确评估。
-2. **资源提取效率模型**：开发模拟资源提取过程的物理模型，考虑小行星的物理环境（如重力、温度、压力等）和材料特性（如硬度、粘性等），优化提取技术方案，提高资源提取的效率和安全性。
-3. **环境影响评估模型**：建立评估小行星开采活动对其自然环境和生态系统的潜在影响的模型，确保开采活动的可持续性和环境保护。
-4. **长期监测网络**：在小行星表面建立长期监测站，收集环境变化、资源消耗等数据，为后续的开采活动提供持续的数据支持。
-通过上述方法和技术的发展，不仅能够更准确地评估小行星上的资源分布和可开采性，还能为未来的太空资源开发提供科学依据和技术支持，为人类的太空探索事业开辟新的方向。</t>
-  </si>
-  <si>
-    <t>在小行星低重力环境中进行采样与资源提取，确实面临着一系列独特的挑战，包括但不限于设备的固定、样本的收集以及资源的加工与运输。为了有效克服这些挑战，我们可以通过开发和应用一系列适应低重力环境的新技术方案或模型来实现目标。以下是几个具体的建议：
-1. **设备固定与稳定技术**：
-   - **静电吸附与磁性吸附**：开发能够利用小行星表面静电或磁性的吸附装置，以确保设备在低重力环境下的稳定性。这些吸附装置可以根据小行星的具体物质组成进行定制，以提高吸附效率。
-   - **机械锚定**：设计一种可以深入小行星表面的机械锚定系统，通过螺旋钻或类似机构固定设备，从而提供足够的稳定性以支持采样和挖掘操作。
-2. **采样与挖掘技术**：
-   - **轻量化与多功能机械臂**：开发轻量化且多功能的机械臂，这些机械臂能够根据不同的采样需求调整其工作模式，例如使用不同的末端执行器进行样本抓取、切割或钻取。此外，机械臂的设计应考虑到低重力环境下的能效比，以减少能源消耗。
-   - **微波加热采样**：利用微波加热技术对小行星表面的冰层进行加热，以促进样本的采集。这种方法在低重力环境下尤其有效，因为加热可以减少冰的粘度，使其更容易被采集。
-3. **样本处理与运输**：
-   - **密封容器技术**：设计能够适应低重力环境的密封容器，用于收集和储存样本。这些容器应具有良好的密封性能，以防止样本在运输过程中的泄漏或污染。
-   - **低重力运输系统**：开发专门用于低重力环境的运输系统，确保样本从采样点到处理点的安全运输。这可能包括使用轻质材料制成的运输车或传送带，以及利用微小推进器进行精细控制的运输平台。
-4. **资源加工技术**：
-   - **现场资源利用（ISRU）**：开发现场资源利用技术，直接在小行星上处理和提取所需的资源。例如，可以利用太阳能或核能驱动的冶炼设施，将采集到的矿物材料转化为可用的金属或其他材料。
-   - **微重力环境下的化学反应器**：研究和开发适用于微重力环境下的化学反应器，用于处理小行星表面的矿物，提取有价值成分。这些反应器的设计应考虑重力对反应过程的影响，以提高反应效率和资源回收率。
-5. **智能控制与自主导航**：
-   - **人工智能控制系统**：利用先进的人工智能算法，开发能够自主控制和导航的采样与挖掘设备。这些设备应具备环境感知能力，能够根据小行星表面的实际情况调整其操作策略，以适应复杂的地形和变化的环境条件。
-   - **遥操作与半自主模式**：结合地面控制站的远程操作和设备的半自主模式，实现高效、灵活的采样与挖掘任务。通过地面控制站提供宏观指令，设备自主执行具体操作，以提高任务的执行效率和安全性。
-综上所述，通过开发和应用上述技术方案，可以有效克服小行星低重力环境对采样和资源提取的影响，为未来的小行星探测和资源开发任务提供坚实的技术支持。</t>
-  </si>
-  <si>
-    <t>采样与资源开发对小行星环境的长期影响是一个复杂且多维的问题，它涉及到小行星的物理、化学性质的变化，以及这些变化对其轨道稳定性的影响。为了全面评估采样和资源开发活动对小行星环境的影响，需要建立一套综合的评估模型，该模型应包含以下几个关键组成部分：
-1. **小行星物理性质的变化监测**：采用遥感技术和地面雷达观测技术，监测小行星表面物质的物理特性变化，如密度、硬度、孔隙度等。通过分析这些数据，可以评估采样和资源开发活动对小行星表面结构的影响，以及这些活动是否导致表面材料的显著变化。
-2. **化学成分分析**：使用光谱分析技术，如红外光谱、拉曼光谱等，监测小行星表面和内部材料的化学成分变化。这有助于了解采样和开发活动是否导致了化学成分的改变，以及这些改变可能对小行星环境产生的长远影响。
-3. **轨道动力学分析模型**：构建小行星轨道动力学模型，模拟采样和资源开发活动对小行星质量分布的影响，进而评估这些活动对小行星轨道稳定性的影响。特别关注小行星与其卫星系统、行星或其他天体之间的引力相互作用如何因质量变化而改变。
-4. **环境影响评估框架**：建立一个全面的环境影响评估框架，该框架不仅考虑直接的物理和化学变化，还应包括对小行星生态系统（如果存在的话）的影响评估。此外，还需要考虑人类活动对小行星环境的间接影响，如可能产生的微小尘埃粒子对小行星环境和周围空间环境的影响。
-5. **可持续性与安全性评估**：基于上述分析，制定一套可持续资源开发和采样操作的指导原则，确保活动既能满足当前的技术和经济需求，又不会对小行星环境造成长远的不可逆损害。同时，评估这些活动的安全性，确保不会对地球或其他重要天体构成威胁。
-6. **国际协作与数据共享**：鉴于小行星资源开发的国际性和复杂性，建立国际合作机制，促进数据共享和技术交流，确保所有国家和利益相关方都能从科学发现和资源开发中受益，同时共同承担保护太空环境的责任。
-通过上述方法和模型的建立，可以为小行星采样和资源开发活动提供科学依据，确保这些活动在环境保护和资源可持续利用方面达到最佳平衡。这不仅有助于推动太空探索和利用的健康发展，也为人类的长期太空存在和未来可能的太空居住提供基础支持。</t>
-  </si>
-  <si>
-    <t>### 小行星采样与资源开发的多学科分析
-#### 1. 小行星的地质结构与矿物组成
-**化学教授分析**：
-小行星的地质结构和矿物组成对其资源价值有直接影响。不同类型的陨石和小行星，其成分差异很大，从碳质球粒陨石（C型小行星）中发现的丰富的有机物和水，到石质球粒陨石（S型小行星）中的硅酸盐矿物，再到铁质陨石（M型小行星）中的金属铁和镍，每种类型的小行星都具有独特的地质特征和成分。通过已知陨石样本分析、遥感技术对小行星表面光谱特征的分析，以及通过地面望远镜和空间探测器的高分辨率图像研究小行星表面特征，可以推断小行星的矿物组成。进一步，可以通过模拟实验来探索小行星内部可能存在的结构和物质分布。
-**补充观点**：
-- **高分辨率遥感技术**：利用地面望远镜和空间探测器的高分辨率成像技术，可以详细记录小行星表面的地形和矿物分布。通过这些图像和光谱数据，科学家可以识别出特定的矿物成分，例如通过近红外光谱技术检测到水和有机物的存在。
-- **实验室模拟**：在实验室中模拟小行星的形成条件，通过高压高温实验生成相似的矿物，可以更好地理解小行星内部的物质分布和结构。这种方法还可以帮助科学家测试小行星物质在不同条件下的行为，为未来的资源提取提供理论支持。
-- **采样返回任务**：通过太空探测器进行小行星表面采样并返回地球，可以获取直接的物质样本进行详细分析。这种方法不仅可以验证遥感和模拟实验的结果，还可以发现新的矿物和有机化合物，为更深入的研究提供物质基础。
-- **多学科合作**：小行星研究是一个多学科交叉的领域，需要化学、地质学、天文学和材料科学等多学科的紧密合作。通过多学科的综合研究，可以更全面地理解小行星的地质结构和矿物组成，为未来的太空探索和资源利用提供科学依据。
-#### 2. 小行星上的资源分布及其可开采性
-**物理学教授分析**：
-了解小行星上的资源分布是评估其经济价值和开采潜力的基础。资源的分布受小行星的地质历史、物理性质和环境条件的影响。采用多尺度的探测方法，如地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测，可以综合评估资源分布。对于可开采性，需要考虑小行星的自转状态、重力环境、表面稳定性等因素，这些都将影响开采设备的设计和技术选择。
-**补充观点**：
-- **地质历史**：小行星的形成和演化历史对其资源分布有决定性影响。例如，C型小行星富含水冰和有机物，而S型小行星则富含金属和硅酸盐矿物。通过分析小行星的光谱特性，可以初步判断其类型和可能的资源分布。
-- **物理性质**：小行星的大小、形状、密度和表面结构等物理性质会影响资源的分布。例如，较大的小行星内部可能存在部分分层，导致不同的矿物在不同深度上富集。小行星的表面风化层（regolith）也可能含有丰富的资源。
-- **环境条件**：小行星所处的位置以及其周围的空间环境，如辐射环境、微流星体撞击等，也会影响资源的分布。例如，频繁的微流星体撞击可能会导致小行星表面物质的混合。
-#### 3. 如何克服小行星低重力环境对采样和资源提取的影响
-**人工智能教授分析**：
-小行星的低重力环境给采样和资源提取带来了独特挑战，如设备的固定、样本的收集以及资源的加工等。需要开发适应低重力环境的采样和挖掘技术，如利用静电吸附、磁性吸附或机械臂等方法。同时，研究如何在低重力条件下处理和运输样本，确保资源提取过程中的效率与安全。
-**补充观点**：
-- **设备固定与稳定技术**：开发能够利用小行星表面静电或磁性的吸附装置，以确保设备在低重力环境下的稳定性。这些吸附装置可以根据小行星的具体物质组成进行定制，以提高吸附效率。设计一种可以深入小行星表面的机械锚定系统，通过螺旋钻或类似机构固定设备，从而提供足够的稳定性以支持采样和挖掘操作。
-- **采样与挖掘技术**：开发轻量化且多功能的机械臂，这些机械臂能够根据不同的采样需求调整其工作模式，例如使用不同的末端执行器进行样本抓取、切割或钻取。利用微波加热技术对小行星表面的冰层进行加热，以促进样本的采集。
-- **样本处理与运输**：设计能够适应低重力环境的密封容器，用于收集和储存样本。开发专门用于低重力环境的运输系统，确保样本从采样点到处理点的安全运输。
-- **资源加工技术**：开发现场资源利用技术，直接在小行星上处理和提取所需的资源。研究和开发适用于微重力环境下的化学反应器，用于处理小行星表面的矿物，提取有价值成分。
-- **智能控制与自主导航**：利用先进的人工智能算法，开发能够自主控制和导航的采样与挖掘设备。结合地面控制站的远程操作和设备的半自主模式，实现高效、灵活的采样与挖掘任务。
-#### 4. 采样与资源开发对小行星环境的长期影响
-**地理学教授分析**：
-资源开发可能会改变小行星的物理和化学性质，影响其环境，甚至可能影响其轨道稳定性。需要建立一套评估小行星环境影响的模型，监测采样和资源开发活动对小行星表面和内部结构的改变。此外，还应研究开发活动对小行星轨道的潜在影响，以确保活动的可持续性和安全性。
-**补充观点**：
-- **小行星物理性质的变化监测**：采用遥感技术和地面雷达观测技术，监测小行星表面物质的物理特性变化，如密度、硬度、孔隙度等。通过分析这些数据，可以评估采样和资源开发活动对小行星表面结构的影响。
-- **化学成分分析**：使用光谱分析技术，如红外光谱、拉曼光谱等，监测小行星表面和内部材料的化学成分变化。这有助于了解采样和开发活动是否导致了化学成分的改变。
-- **轨道动力学分析模型**：构建小行星轨道动力学模型，模拟采样和资源开发活动对小行星质量分布的影响，进而评估这些活动对小行星轨道稳定性的影响。
-- **环境影响评估框架**：建立一个全面的环境影响评估框架，该框架不仅考虑直接的物理和化学变化，还应包括对小行星生态系统（如果存在的话）的影响评估。此外，还需要考虑人类活动对小行星环境的间接影响。
-- **可持续性与安全性评估**：基于上述分析，制定一套可持续资源开发和采样操作的指导原则，确保活动既能满足当前的技术和经济需求，又不会对小行星环境造成长远的不可逆损害。评估这些活动的安全性，确保不会对地球或其他重要天体构成威胁。
-- **国际协作与数据共享**：建立国际合作机制，促进数据共享和技术交流，确保所有国家和利益相关方都能从科学发现和资源开发中受益，同时共同承担保护太空环境的责任。
-通过上述多学科的综合分析和研究方向的提出，我们不仅能够更好地理解小行星资源的潜力，还能够为未来的科学探索和技术开发提供指导，同时确保这一活动的环境影响最小化，并在法律和伦理上得到合理的框架支持。</t>
+- **数据共享与透明度机制**：建立基于区块链技术的数据共享平台，确保数据透明、安全地共享，利用AI技术提高数据的利用效率，通过智能合约确保数据的使用符合国际协议。
+- **智能政策建议系统**：开发基于AI的政策建议系统，综合各国的政策需求、国际法律框架、技术标准等信息，自动生成适应性强、灵活性高的国际政策建议，帮助国际社会更快地达成共识。
+- **资源分配优化模型**：利用AI技术建立资源分配优化模型，考虑资源分布情况、各国技术水平、经济利益等因素，提出公平、合理的资源分配方案，减少国际争端。
+- **知识产权保护机制**：开发基于AI的知识产权保护平台，自动识别和分析与小行星资源开发相关的知识产权信息，提供及时、准确的知识产权状态报告，评估知识产权的价值和可能的侵权风险。
+- **冲突预防与解决机制**：构建基于AI的冲突预防与解决机制，实时监测国际社会在小行星资源开发过程中的动态，预测潜在的冲突点，提出预防措施，快速响应冲突，提供调解方案，促进国际争端的和平解决。
+通过上述各个学科的补充分析，我们可以从多个角度全面支持小行星采样与资源开发的研究任务，不仅关注技术层面的可行性，还考虑了环境、经济、社会文化等多个维度，使研究更加科学、合理和可持续。</t>
   </si>
   <si>
     <t>**项目申请书**
-**摘要**
-本项目旨在通过综合运用遥感技术、地质分析、物理模拟和法律研究等多学科手段，系统性地分析小行星的地质结构、矿物组成、资源分布及其可开采性，克服低重力环境下的采样和资源提取技术难题，评估采样与资源开发对小行星环境的长期影响，并探讨建立有效的国际法律框架来规范小行星资源的开发。项目将为小行星资源开发提供科学依据和技术支持，促进人类对太空资源的合理利用和可持续发展。
-**研究背景和意义**
-随着人类对地球资源的需求日益增长和对太空探索的兴趣不断加深，小行星因其丰富的矿物资源而成为未来资源开发的重要目标。小行星资源的开发不仅能够缓解地球资源的压力，还可能为人类提供新的能源和技术材料，对推动科技进步和经济发展具有重要意义。然而，小行星资源的开发面临地质结构复杂、矿物组成多样、低重力环境挑战、环境影响和国际法律框架缺失等多方面的问题。因此，本项目致力于解决这些问题，为小行星资源的科学开发提供全面的解决方案。
-**研究内容**
-1. **小行星地质结构与矿物组成的分析**：通过分析已知陨石样本和遥感技术，结合地面望远镜和空间探测器的高分辨率图像，研究小行星表面特征，推断其矿物组成，并通过模拟实验探索小行星内部结构和物质分布。
-2. **小行星资源分布及其可开采性的评估**：采用多尺度探测方法，综合评估资源分布，考虑小行星的自转状态、重力环境、表面稳定性等因素，评估资源的可开采性。
-3. **低重力环境下采样和资源提取技术的开发**：研究适应低重力环境的采样和挖掘技术，如静电吸附、磁性吸附、机械臂等方法，以及资源处理和运输技术。
-4. **采样与资源开发对小行星环境的长期影响评估**：建立评估模型，监测采样和资源开发活动对小行星表面和内部结构的改变，研究开发活动对小行星轨道的潜在影响。
-5. **国际法律框架的建立**：在国际空间法框架下，探讨建立多边协议或条约的可能性，研究国际合作机制，促进小行星资源开发的透明度和可持续性。
-**拟解决的科学问题**
-1. 小行星的地质结构和矿物组成如何影响其资源价值？
-2. 小行星上的资源分布及其可开采性如何评估？
-3. 低重力环境对采样和资源提取的影响及应对策略是什么？
-4. 采样与资源开发对小行星环境的长期影响有哪些？
-5. 如何建立有效的国际法律框架来规范小行星资源的开发？
-**拟提出的技术路线**
-1. **小行星地质结构与矿物组成的分析技术路线**：
-   - 收集已知陨石样本，进行矿物学和化学分析，了解小行星可能的成分。
-   - 运用高光谱遥感技术对小行星表面进行光谱分析，结合地面望远镜和空间探测器的光谱数据，推断矿物组成。
-   - 利用空间探测器的高分辨率图像分析小行星表面特征，结合地质学原理，推测其地质结构。
-   - 通过实验室模拟实验，探索小行星内部结构和物质分布，模拟不同条件下物质的形成和迁移过程。
-2. **小行星资源分布及其可开采性的评估技术路线**：
-   - 综合运用地面天文观测、轨道探测器的遥感数据、以及着陆探测器的实地探测数据，建立小行星资源分布模型。
-   - 进行资源量估算，结合小行星的物理性质（如自转状态、重力环境、表面稳定性）评估资源的可开采性。
-   - 开发资源评估软件，实现对小行星资源分布和可开采性的快速评估。
-3. **低重力环境下采样和资源提取技术的开发技术路线**：
-   - 研究小行星低重力环境下的物理学特性，设计适应低重力环境的采样工具，如静电吸附装置、磁性吸附装置、机械臂等。
-   - 开发适用于低重力环境的资源提取技术，包括挖掘、破碎、筛选和运输等过程的技术方案。
-   - 在地面模拟低重力环境进行技术验证，确保技术方案的有效性和可靠性。
-4. **采样与资源开发对小行星环境的长期影响评估技术路线**：
-   - 建立环境影响评估模型，模型应考虑采样和资源开发对小行星表面、内部结构以及轨道的影响。
-   - 利用轨道探测器和着陆探测器的数据，监测采样和资源开发活动对小行星环境的影响。
-   - 通过模型预测和监测数据的对比，评估开发活动的环境影响，提出减少影响的措施。
-5. **国际法律框架的建立技术路线**：
-   - 研究现行国际空间法及相关国际协议，分析其在小行星资源开发中的适用性。
-   - 与国际组织、政府机构、科研机构和企业合作，探讨建立多边协议或条约的可能性，确保小行星资源开发的公平性和合理性。
-   - 探索通过国际合作机制，如建立国际组织或联合开发项目，促进小行星资源开发的透明度和可持续性，确保资源开发活动的法律依据。
-**预期成果**
-1. 建立一套完整的小行星地质结构和矿物组成分析方法，为小行星资源评估提供基础数据。
-2. 开发出多尺度的小行星资源分布评估技术和可开采性评估软件，提高资源评估的准确性和效率。
-3. 提出适应低重力环境的采样和资源提取技术方案，确保资源开发过程的安全和效率。
-4. 建立小行星环境影响评估模型，为减少开发活动对小行星环境的影响提供科学依据。
-5. 提出国际法律框架的建设方案，为小行星资源开发提供法律支持，促进国际间的合作与交流。
-本项目将通过多学科的综合研究，为小行星资源的科学开发提供全面的技术支持和理论依据，为人类探索和利用太空资源开辟新的路径。</t>
+**标题：** 小行星采样与资源开发的综合研究
+**摘要：**
+本项目旨在通过系统性的科学研究和技术开发，推动小行星采样与资源开发的前沿进展。项目将从小行星的分类与选择、采样技术的开发、资源评估与利用、环境保护与伦理考量以及国际合作与政策制定五个方面进行深入研究，旨在为小行星资源的可持续开发提供科学依据和技术支持。
+**研究背景和意义：**
+随着地球资源的日益枯竭和人类对太空探索的不断深入，小行星资源开发成为未来资源获取的重要途径。小行星富含金属、水冰等宝贵资源，不仅能够支持深空探测任务，还具有潜在的商业价值。然而，小行星资源开发面临着诸多科学与技术挑战，包括如何选择合适的小行星、如何高效安全地采集样本、如何评估和利用这些资源、如何确保环境保护与伦理规范，以及如何建立国际合作框架。因此，本项目的研究具有重要的科学意义和实际应用价值。
+**研究内容：**
+1. **小行星的分类与选择研究：** 通过天文学观测和数据处理技术，建立小行星分类模型，选择适合采样的目标小行星。
+2. **小行星采样技术的研究与开发：** 研发适用于不同类型小行星的采样设备和技术，包括软着陆、钻探取样等。
+3. **小行星资源的评估与利用：** 对采集的样本进行化学和物理分析，评估资源的种类和含量，提出资源利用的具体方案。
+4. **小行星资源开发的环境保护与伦理考量：** 研究小行星资源开发对太空环境的影响，制定环境保护与伦理规范。
+5. **国际合作与政策制定：** 探讨国际间在小行星资源开发方面的合作机制，推动相关国际政策的制定。
+**拟解决的科学问题：**
+1. **小行星分类与选择的科学依据：** 研究小行星的物理和化学特性，建立分类标准，为选择适合采样的小行星提供科学依据。
+2. **高效采样技术的研发：** 开发适用于不同环境的小行星采样技术，解决采样过程中的技术难题。
+3. **资源评估与利用的技术方法：** 研究资源评估的技术手段，提出资源利用的具体方案，确保资源的有效利用。
+4. **环境保护与伦理考量的规范制定：** 探讨小行星资源开发对太空环境的影响，制定相应的环境保护与伦理规范。
+5. **国际合作与政策制定的机制建立：** 探讨国际间合作的机制，推动相关国际政策的制定，促进全球共同开发小行星资源。
+**拟提出的技术路线：**
+1. **小行星的分类与选择研究：**
+   - **数据收集与处理：** 利用天文观测数据，结合遥感技术和数据处理算法，收集小行星的物理和化学特性数据。
+   - **分类模型建立：** 基于收集的数据，使用机器学习和数据挖掘技术，建立小行星分类模型，对小行星进行分类。
+   - **选择标准制定：** 根据分类结果，结合小行星的轨道、大小、密度等参数，制定选择标准，选择适合采样的目标小行星。
+2. **小行星采样技术的研究与开发：**
+   - **采样设备设计：** 结合小行星的环境特点，设计适用于不同类型小行星的采样设备，包括软着陆器、钻探设备等。
+   - **采样技术开发：** 研发适用于不同环境的采样技术，如真空采样、机械臂采样等，确保采样过程的安全和高效。
+   - **地面实验与模拟：** 在地面实验室中进行采样设备的测试和模拟实验，验证设备的性能和可靠性。
+3. **小行星资源的评估与利用：**
+   - **样本分析技术：** 对采集的样本进行化学和物理分析，使用质谱仪、X射线衍射仪等设备，确定资源的种类和含量。
+   - **资源评估模型：** 基于分析结果，建立资源评估模型，评估资源的经济价值和利用潜力。
+   - **利用方案制定：** 提出资源利用的具体方案，包括资源的提取、加工和运输等环节，确保资源的有效利用。
+4. **小行星资源开发的环境保护与伦理考量：**
+   - **环境影响评估：** 研究小行星资源开发对太空环境的影响，包括对小行星轨道、大气层等的影响。
+   - **环境保护技术：** 开发环境监测和保护技术，确保资源开发过程中对太空环境的最小影响。
+   - **伦理规范制定：** 探讨小行星资源开发的伦理问题，制定相应的伦理规范，确保开发活动的伦理合理性。
+5. **国际合作与政策制定：**
+   - **合作机制研究：** 探讨国际间在小行星资源开发方面的合作机制，包括数据共享、技术交流等。
+   - **政策建议提出：** 基于合作机制的研究，提出相关国际政策建议，促进全球共同开发小行星资源。
+   - **政策推动与实施：** 与国际组织和各国政府合作，推动相关国际政策的制定和实施。
+**预期成果：**
+1. **科学成果：** 建立小行星分类模型，提出小行星采样技术方案，评估小行星资源的种类和含量，制定环境保护与伦理规范，提出国际合作与政策建议。
+2. **技术成果：** 开发适用于不同类型小行星的采样设备和技术，建立资源评估模型，开发环境监测和保护技术。
+3. **应用成果：** 为小行星资源的可持续开发提供科学依据和技术支持，促进国际间的合作与政策制定，推动小行星资源开发的科学与技术进步。
+通过本项目的实施，将为小行星采样与资源开发提供系统的科学和技术支持，为未来的太空探索和资源利用奠定坚实的基础。</t>
   </si>
 </sst>
 </file>
@@ -674,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,159 +907,351 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
